--- a/capiq_data/in_process_data/IQ296957.xlsx
+++ b/capiq_data/in_process_data/IQ296957.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E407D9F-C5F9-44D3-B3E8-E7B1F245D911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6168D52-C738-4819-BD97-D99A743B0B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e9934817-79e5-453a-9ec7-5f3a9e276125"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6cd5caf0-e62d-4c7a-8d1d-439cbbfad660"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>7.35</v>
+        <v>42.311999999999998</v>
       </c>
       <c r="D2">
-        <v>657.43200000000002</v>
+        <v>838.154</v>
       </c>
       <c r="E2">
-        <v>419.51799999999997</v>
+        <v>588.38800000000003</v>
       </c>
       <c r="F2">
-        <v>201.256</v>
+        <v>279.99299999999999</v>
       </c>
       <c r="G2">
-        <v>1024.511</v>
+        <v>793.91300000000001</v>
       </c>
       <c r="H2">
-        <v>12392.998</v>
+        <v>7162.9849999999997</v>
       </c>
       <c r="I2">
-        <v>236.35400000000001</v>
+        <v>375.80500000000001</v>
       </c>
       <c r="J2">
-        <v>3045.7939999999999</v>
+        <v>1955.0830000000001</v>
       </c>
       <c r="K2">
-        <v>16.600000000000001</v>
+        <v>82.775000000000006</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1449.704</v>
+        <v>1191.298</v>
       </c>
       <c r="O2">
-        <v>8617.7720000000008</v>
+        <v>4780.2709999999997</v>
       </c>
       <c r="P2">
-        <v>3694.2730000000001</v>
+        <v>2501.3270000000002</v>
       </c>
       <c r="Q2">
-        <v>-85.727000000000004</v>
+        <v>-77.319000000000003</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>6740</v>
+        <v>7200</v>
       </c>
       <c r="T2">
-        <v>3775.2260000000001</v>
+        <v>2382.7139999999999</v>
       </c>
       <c r="U2">
-        <v>110.188</v>
+        <v>10.363</v>
       </c>
       <c r="V2">
-        <v>180.95699999999999</v>
+        <v>160.41499999999999</v>
       </c>
       <c r="W2">
-        <v>-55.256999999999998</v>
+        <v>-31.77</v>
       </c>
       <c r="X2">
-        <v>-68.003</v>
+        <v>105.497</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>7.35</v>
+        <v>42.311999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-15.135</v>
+        <v>59.45</v>
       </c>
       <c r="D3">
-        <v>648.84699999999998</v>
+        <v>938.82899999999995</v>
       </c>
       <c r="E3">
-        <v>395.822</v>
+        <v>490.70699999999999</v>
       </c>
       <c r="F3">
-        <v>181.81100000000001</v>
+        <v>297.15499999999997</v>
       </c>
       <c r="G3">
-        <v>958.01700000000005</v>
+        <v>1072.9110000000001</v>
       </c>
       <c r="H3">
-        <v>12302.89</v>
+        <v>7595.93</v>
       </c>
       <c r="I3">
-        <v>215.96799999999999</v>
+        <v>326.387</v>
       </c>
       <c r="J3">
-        <v>2845.4789999999998</v>
+        <v>2125.239</v>
       </c>
       <c r="K3">
-        <v>17.3</v>
+        <v>178.625</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-175.17</v>
+        <v>-184.20599999999999</v>
       </c>
       <c r="N3">
-        <v>1674.212</v>
+        <v>1364.425</v>
       </c>
       <c r="O3">
-        <v>8574.1190000000006</v>
+        <v>5150.067</v>
       </c>
       <c r="P3">
-        <v>3695.0540000000001</v>
+        <v>2800.13</v>
       </c>
       <c r="Q3">
-        <v>4.0049999999999999</v>
+        <v>121.52</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3728.7710000000002</v>
+        <v>2445.8629999999998</v>
       </c>
       <c r="U3">
-        <v>114.193</v>
+        <v>249.393</v>
       </c>
       <c r="V3">
-        <v>243.49600000000001</v>
+        <v>189.209</v>
       </c>
       <c r="W3">
-        <v>-55.3</v>
+        <v>-31.785</v>
       </c>
       <c r="X3">
-        <v>-46.695999999999998</v>
+        <v>264.91899999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-15.135</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>86.685000000000002</v>
+        <v>66.856999999999999</v>
       </c>
       <c r="D4">
-        <v>799.79899999999998</v>
+        <v>773.41700000000003</v>
       </c>
       <c r="E4">
-        <v>454.423</v>
+        <v>416.00900000000001</v>
       </c>
       <c r="F4">
-        <v>345.16</v>
+        <v>306.11200000000002</v>
       </c>
       <c r="G4">
-        <v>1036.8530000000001</v>
+        <v>825.79700000000003</v>
       </c>
       <c r="H4">
-        <v>12474.08</v>
+        <v>7547.4660000000003</v>
       </c>
       <c r="I4">
-        <v>271.75900000000001</v>
+        <v>196.191</v>
       </c>
       <c r="J4">
-        <v>2761.6950000000002</v>
+        <v>2104.5859999999998</v>
       </c>
       <c r="K4">
-        <v>7.3</v>
+        <v>301.94900000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1831.2940000000001</v>
+        <v>1335.586</v>
       </c>
       <c r="O4">
-        <v>8758.4699999999993</v>
+        <v>5158.2730000000001</v>
       </c>
       <c r="P4">
-        <v>3672.511</v>
+        <v>2806.8009999999999</v>
       </c>
       <c r="Q4">
-        <v>-21.919</v>
+        <v>-118.79300000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3715.61</v>
+        <v>2389.1930000000002</v>
       </c>
       <c r="U4">
-        <v>92.274000000000001</v>
+        <v>13.09</v>
       </c>
       <c r="V4">
-        <v>192.78299999999999</v>
+        <v>84.194000000000003</v>
       </c>
       <c r="W4">
-        <v>-57.237000000000002</v>
+        <v>-31.788</v>
       </c>
       <c r="X4">
-        <v>-79.168000000000006</v>
+        <v>-27.678000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>86.685000000000002</v>
+        <v>66.856999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>255.35900000000001</v>
+        <v>150.053</v>
       </c>
       <c r="D5">
-        <v>1124.8409999999999</v>
+        <v>1160.778</v>
       </c>
       <c r="E5">
-        <v>545.91099999999994</v>
+        <v>728.745</v>
       </c>
       <c r="F5">
-        <v>576.91</v>
+        <v>476.35899999999998</v>
       </c>
       <c r="G5">
-        <v>1591.2349999999999</v>
+        <v>1178.269</v>
       </c>
       <c r="H5">
-        <v>13150.362999999999</v>
+        <v>8362.8619999999992</v>
       </c>
       <c r="I5">
-        <v>281.64699999999999</v>
+        <v>412.226</v>
       </c>
       <c r="J5">
-        <v>3046.587</v>
+        <v>2349.6770000000001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>199.4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1783.268</v>
+        <v>1657.4059999999999</v>
       </c>
       <c r="O5">
-        <v>9147.3680000000004</v>
+        <v>5871.5410000000002</v>
       </c>
       <c r="P5">
-        <v>3922.95</v>
+        <v>2949.3429999999998</v>
       </c>
       <c r="Q5">
-        <v>472.43799999999999</v>
+        <v>12.247</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4002.9949999999999</v>
+        <v>2491.3209999999999</v>
       </c>
       <c r="U5">
-        <v>564.71199999999999</v>
+        <v>25.337</v>
       </c>
       <c r="V5">
-        <v>484.22699999999998</v>
+        <v>165.38200000000001</v>
       </c>
       <c r="W5">
-        <v>-53.66</v>
+        <v>-31.768000000000001</v>
       </c>
       <c r="X5">
-        <v>194.17400000000001</v>
+        <v>109.149</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>255.35900000000001</v>
+        <v>150.053</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>12.564</v>
+        <v>35.805999999999997</v>
       </c>
       <c r="D6">
-        <v>667.89200000000005</v>
+        <v>520.97400000000005</v>
       </c>
       <c r="E6">
-        <v>405.67399999999998</v>
+        <v>443.37200000000001</v>
       </c>
       <c r="F6">
-        <v>223.74799999999999</v>
+        <v>289.20499999999998</v>
       </c>
       <c r="G6">
-        <v>956.47</v>
+        <v>727.40499999999997</v>
       </c>
       <c r="H6">
-        <v>13111.018</v>
+        <v>7939.3990000000003</v>
       </c>
       <c r="I6">
-        <v>326.98700000000002</v>
+        <v>269.12400000000002</v>
       </c>
       <c r="J6">
-        <v>3019.0540000000001</v>
+        <v>2673.078</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>405.762</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1342.7049999999999</v>
+        <v>1085.5060000000001</v>
       </c>
       <c r="O6">
-        <v>9180.4320000000007</v>
+        <v>5440.076</v>
       </c>
       <c r="P6">
-        <v>3496.489</v>
+        <v>3204.98</v>
       </c>
       <c r="Q6">
-        <v>-531.12900000000002</v>
+        <v>3.282</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>6663</v>
+        <v>7600</v>
       </c>
       <c r="T6">
-        <v>3930.5859999999998</v>
+        <v>2499.3229999999999</v>
       </c>
       <c r="U6">
-        <v>33.582999999999998</v>
+        <v>28.619</v>
       </c>
       <c r="V6">
-        <v>205.077</v>
+        <v>132.25800000000001</v>
       </c>
       <c r="W6">
-        <v>-55.530999999999999</v>
+        <v>-33.857999999999997</v>
       </c>
       <c r="X6">
-        <v>-488.49099999999999</v>
+        <v>220.74</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>12.564</v>
+        <v>35.805999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-8.2569999999999997</v>
+        <v>53.756999999999998</v>
       </c>
       <c r="D7">
-        <v>620.63099999999997</v>
+        <v>499.84399999999999</v>
       </c>
       <c r="E7">
-        <v>340.22899999999998</v>
+        <v>377.13400000000001</v>
       </c>
       <c r="F7">
-        <v>193.65899999999999</v>
+        <v>285.09800000000001</v>
       </c>
       <c r="G7">
-        <v>904.8</v>
+        <v>768.66700000000003</v>
       </c>
       <c r="H7">
-        <v>13183.914000000001</v>
+        <v>8168.4440000000004</v>
       </c>
       <c r="I7">
-        <v>265.97500000000002</v>
+        <v>151.583</v>
       </c>
       <c r="J7">
-        <v>3341.1979999999999</v>
+        <v>3264.6260000000002</v>
       </c>
       <c r="K7">
-        <v>216.6</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-253.46199999999999</v>
       </c>
       <c r="M7">
-        <v>-375.72699999999998</v>
+        <v>-133.749</v>
       </c>
       <c r="N7">
-        <v>1157.8989999999999</v>
+        <v>650.39200000000005</v>
       </c>
       <c r="O7">
-        <v>9322.4850000000006</v>
+        <v>5619.02</v>
       </c>
       <c r="P7">
-        <v>3659.5059999999999</v>
+        <v>3423.8110000000001</v>
       </c>
       <c r="Q7">
-        <v>-12.872999999999999</v>
+        <v>-8.1760000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3861.4290000000001</v>
+        <v>2549.424</v>
       </c>
       <c r="U7">
-        <v>20.71</v>
+        <v>20.443000000000001</v>
       </c>
       <c r="V7">
-        <v>115.33499999999999</v>
+        <v>135.821</v>
       </c>
       <c r="W7">
-        <v>-55.594999999999999</v>
+        <v>-33.887999999999998</v>
       </c>
       <c r="X7">
-        <v>106.89100000000001</v>
+        <v>184.74700000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-8.2569999999999997</v>
+        <v>53.756999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>122.345</v>
+        <v>75.364999999999995</v>
       </c>
       <c r="D8">
-        <v>878.57600000000002</v>
+        <v>593.51599999999996</v>
       </c>
       <c r="E8">
-        <v>481.87</v>
+        <v>457.76799999999997</v>
       </c>
       <c r="F8">
-        <v>397.61700000000002</v>
+        <v>329.45</v>
       </c>
       <c r="G8">
-        <v>947.41600000000005</v>
+        <v>723.79600000000005</v>
       </c>
       <c r="H8">
-        <v>13214.406999999999</v>
+        <v>8243.2289999999994</v>
       </c>
       <c r="I8">
-        <v>316.32900000000001</v>
+        <v>164.29300000000001</v>
       </c>
       <c r="J8">
-        <v>3371.4119999999998</v>
+        <v>3124.2310000000002</v>
       </c>
       <c r="K8">
-        <v>109</v>
+        <v>374.26600000000002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1104.3230000000001</v>
+        <v>916.57399999999996</v>
       </c>
       <c r="O8">
-        <v>9315.07</v>
+        <v>5652.893</v>
       </c>
       <c r="P8">
-        <v>3538.3739999999998</v>
+        <v>3499.8409999999999</v>
       </c>
       <c r="Q8">
-        <v>-9.4819999999999993</v>
+        <v>-7.4530000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3899.337</v>
+        <v>2590.3359999999998</v>
       </c>
       <c r="U8">
-        <v>11.228</v>
+        <v>13.859</v>
       </c>
       <c r="V8">
-        <v>343.3</v>
+        <v>55.606999999999999</v>
       </c>
       <c r="W8">
-        <v>-55.701999999999998</v>
+        <v>-33.927999999999997</v>
       </c>
       <c r="X8">
-        <v>-173.15899999999999</v>
+        <v>40.99</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>122.345</v>
+        <v>75.364999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>244.82300000000001</v>
+        <v>100.916</v>
       </c>
       <c r="D9">
-        <v>1109.4749999999999</v>
+        <v>871.39</v>
       </c>
       <c r="E9">
-        <v>497.43700000000001</v>
+        <v>562.47500000000002</v>
       </c>
       <c r="F9">
-        <v>585.85199999999998</v>
+        <v>426.10700000000003</v>
       </c>
       <c r="G9">
-        <v>1098.8520000000001</v>
+        <v>846.72199999999998</v>
       </c>
       <c r="H9">
-        <v>13460.286</v>
+        <v>8508.0759999999991</v>
       </c>
       <c r="I9">
-        <v>231.15100000000001</v>
+        <v>271.29700000000003</v>
       </c>
       <c r="J9">
-        <v>3338.951</v>
+        <v>2879.0549999999998</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>317.81099999999998</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>949.34799999999996</v>
+        <v>1209.0229999999999</v>
       </c>
       <c r="O9">
-        <v>9274.7019999999993</v>
+        <v>5845.5460000000003</v>
       </c>
       <c r="P9">
-        <v>3429.3110000000001</v>
+        <v>3457.1689999999999</v>
       </c>
       <c r="Q9">
-        <v>68.251000000000005</v>
+        <v>14.974</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4185.5839999999998</v>
+        <v>2662.53</v>
       </c>
       <c r="U9">
-        <v>79.478999999999999</v>
+        <v>28.099</v>
       </c>
       <c r="V9">
-        <v>470.83600000000001</v>
+        <v>338.322</v>
       </c>
       <c r="W9">
-        <v>-55.777000000000001</v>
+        <v>-33.911000000000001</v>
       </c>
       <c r="X9">
-        <v>-164.18899999999999</v>
+        <v>-92.811999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>244.82300000000001</v>
+        <v>100.916</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>22.631</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>693.12199999999996</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>368.73</v>
+        <v>447.48399999999998</v>
       </c>
       <c r="F10">
-        <v>245.11699999999999</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1005.726</v>
+        <v>860.37199999999996</v>
       </c>
       <c r="H10">
-        <v>13379.615</v>
+        <v>9139.1569999999992</v>
       </c>
       <c r="I10">
-        <v>221.31200000000001</v>
+        <v>332.44099999999997</v>
       </c>
       <c r="J10">
-        <v>3199.0880000000002</v>
+        <v>2743.741</v>
       </c>
       <c r="K10">
-        <v>92.174999999999997</v>
+        <v>227.68299999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1083.5419999999999</v>
+        <v>1233.096</v>
       </c>
       <c r="O10">
-        <v>9277.3259999999991</v>
+        <v>6453.0039999999999</v>
       </c>
       <c r="P10">
-        <v>3414.0909999999999</v>
+        <v>3252.3119999999999</v>
       </c>
       <c r="Q10">
-        <v>-53.277000000000001</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>6613</v>
+        <v>7200</v>
       </c>
       <c r="T10">
-        <v>4102.2889999999998</v>
+        <v>2686.1529999999998</v>
       </c>
       <c r="U10">
-        <v>26.202000000000002</v>
+        <v>77.566000000000003</v>
       </c>
       <c r="V10">
-        <v>241.65100000000001</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-58.000999999999998</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-75.052000000000007</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>22.631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>24.443999999999999</v>
+        <v>25.297999999999998</v>
       </c>
       <c r="D11">
-        <v>686.65200000000004</v>
+        <v>552.64300000000003</v>
       </c>
       <c r="E11">
-        <v>355.54700000000003</v>
+        <v>397.46199999999999</v>
       </c>
       <c r="F11">
-        <v>232.72300000000001</v>
+        <v>252.529</v>
       </c>
       <c r="G11">
-        <v>871.77700000000004</v>
+        <v>875.87400000000002</v>
       </c>
       <c r="H11">
-        <v>13300.927</v>
+        <v>8754.9210000000003</v>
       </c>
       <c r="I11">
-        <v>212.078</v>
+        <v>300.84899999999999</v>
       </c>
       <c r="J11">
-        <v>3304.4580000000001</v>
+        <v>2644.4490000000001</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>207.667</v>
       </c>
       <c r="L11">
-        <v>-92.174999999999997</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-40.325000000000003</v>
       </c>
       <c r="N11">
-        <v>891.51099999999997</v>
+        <v>1361.682</v>
       </c>
       <c r="O11">
-        <v>9148.5969999999998</v>
+        <v>6069.2150000000001</v>
       </c>
       <c r="P11">
-        <v>3427.2860000000001</v>
+        <v>3337.91</v>
       </c>
       <c r="Q11">
-        <v>-1.093</v>
+        <v>-10.276999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4152.33</v>
+        <v>2685.7060000000001</v>
       </c>
       <c r="U11">
-        <v>25.109000000000002</v>
+        <v>67.289000000000001</v>
       </c>
       <c r="V11">
-        <v>212.15700000000001</v>
+        <v>181.434</v>
       </c>
       <c r="W11">
-        <v>-58.067</v>
+        <v>-38.783000000000001</v>
       </c>
       <c r="X11">
-        <v>-36.53</v>
+        <v>46.429000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>24.443999999999999</v>
+        <v>25.297999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>131.20699999999999</v>
+        <v>56.142000000000003</v>
       </c>
       <c r="D12">
-        <v>915.822</v>
+        <v>652.28300000000002</v>
       </c>
       <c r="E12">
-        <v>506.36799999999999</v>
+        <v>456.07100000000003</v>
       </c>
       <c r="F12">
-        <v>408.93799999999999</v>
+        <v>313.13900000000001</v>
       </c>
       <c r="G12">
-        <v>1066.289</v>
+        <v>998.64700000000005</v>
       </c>
       <c r="H12">
-        <v>13562.694</v>
+        <v>9069.8359999999993</v>
       </c>
       <c r="I12">
-        <v>287.36799999999999</v>
+        <v>309.714</v>
       </c>
       <c r="J12">
-        <v>2820.172</v>
+        <v>3133.0929999999998</v>
       </c>
       <c r="K12">
-        <v>30.1</v>
+        <v>65.802000000000007</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1537.2180000000001</v>
+        <v>1065.8889999999999</v>
       </c>
       <c r="O12">
-        <v>9393.4590000000007</v>
+        <v>6332.6080000000002</v>
       </c>
       <c r="P12">
-        <v>3449.4029999999998</v>
+        <v>3434.5140000000001</v>
       </c>
       <c r="Q12">
-        <v>2.694</v>
+        <v>26.895</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4169.2349999999997</v>
+        <v>2737.2280000000001</v>
       </c>
       <c r="U12">
-        <v>27.803000000000001</v>
+        <v>94.183999999999997</v>
       </c>
       <c r="V12">
-        <v>242.09899999999999</v>
+        <v>126.398</v>
       </c>
       <c r="W12">
-        <v>-58.164000000000001</v>
+        <v>-38.773000000000003</v>
       </c>
       <c r="X12">
-        <v>-44.247</v>
+        <v>55.534999999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>131.20699999999999</v>
+        <v>56.142000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>226.16300000000001</v>
+        <v>110.048</v>
       </c>
       <c r="D13">
-        <v>1152.3920000000001</v>
+        <v>831.00199999999995</v>
       </c>
       <c r="E13">
-        <v>556.15700000000004</v>
+        <v>528.28899999999999</v>
       </c>
       <c r="F13">
-        <v>568.11599999999999</v>
+        <v>404.19799999999998</v>
       </c>
       <c r="G13">
-        <v>1350.4860000000001</v>
+        <v>1040.335</v>
       </c>
       <c r="H13">
-        <v>13822.671</v>
+        <v>9112.866</v>
       </c>
       <c r="I13">
-        <v>250.023</v>
+        <v>322.41699999999997</v>
       </c>
       <c r="J13">
-        <v>2820.3150000000001</v>
+        <v>2840.9</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>90.010999999999996</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1444.943</v>
+        <v>1335.182</v>
       </c>
       <c r="O13">
-        <v>9401.2430000000004</v>
+        <v>6309.49</v>
       </c>
       <c r="P13">
-        <v>3386.7959999999998</v>
+        <v>3379.8910000000001</v>
       </c>
       <c r="Q13">
-        <v>107.654</v>
+        <v>105.717</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4421.4279999999999</v>
+        <v>2803.3760000000002</v>
       </c>
       <c r="U13">
-        <v>135.45699999999999</v>
+        <v>201.74600000000001</v>
       </c>
       <c r="V13">
-        <v>428.07400000000001</v>
+        <v>308.786</v>
       </c>
       <c r="W13">
-        <v>-58.253999999999998</v>
+        <v>-38.79</v>
       </c>
       <c r="X13">
-        <v>-120.342</v>
+        <v>-83.084999999999994</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>226.16300000000001</v>
+        <v>110.048</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>24.26</v>
+        <v>49.091000000000001</v>
       </c>
       <c r="D14">
-        <v>699.76199999999994</v>
+        <v>723.56600000000003</v>
       </c>
       <c r="E14">
-        <v>393.49700000000001</v>
+        <v>434.072</v>
       </c>
       <c r="F14">
-        <v>224.41499999999999</v>
+        <v>378.714</v>
       </c>
       <c r="G14">
-        <v>1043.6089999999999</v>
+        <v>974.79399999999998</v>
       </c>
       <c r="H14">
-        <v>13508.686</v>
+        <v>9519.0419999999995</v>
       </c>
       <c r="I14">
-        <v>284.51600000000002</v>
+        <v>283.02100000000002</v>
       </c>
       <c r="J14">
-        <v>2796.4650000000001</v>
+        <v>2616.585</v>
       </c>
       <c r="K14">
-        <v>153.125</v>
+        <v>86.081000000000003</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1618.644</v>
+        <v>1432.568</v>
       </c>
       <c r="O14">
-        <v>9168.2260000000006</v>
+        <v>6689.2629999999999</v>
       </c>
       <c r="P14">
-        <v>3490.0140000000001</v>
+        <v>3407.58</v>
       </c>
       <c r="Q14">
-        <v>-125.931</v>
+        <v>-68.838999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>6433</v>
+        <v>7200</v>
       </c>
       <c r="T14">
-        <v>4340.46</v>
+        <v>2829.779</v>
       </c>
       <c r="U14">
-        <v>9.5259999999999998</v>
+        <v>131.06200000000001</v>
       </c>
       <c r="V14">
-        <v>270.97699999999998</v>
+        <v>284.13499999999999</v>
       </c>
       <c r="W14">
-        <v>-60.759</v>
+        <v>-41.070999999999998</v>
       </c>
       <c r="X14">
-        <v>40.536999999999999</v>
+        <v>-51.064999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-91.85</v>
       </c>
       <c r="AA14">
-        <v>24.26</v>
+        <v>49.091000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>15.766</v>
+        <v>31.425999999999998</v>
       </c>
       <c r="D15">
-        <v>686.25099999999998</v>
+        <v>566.34500000000003</v>
       </c>
       <c r="E15">
-        <v>332.28699999999998</v>
+        <v>373.41899999999998</v>
       </c>
       <c r="F15">
-        <v>223.583</v>
+        <v>272.584</v>
       </c>
       <c r="G15">
-        <v>897.93</v>
+        <v>738.36400000000003</v>
       </c>
       <c r="H15">
-        <v>13450.797</v>
+        <v>9375.3919999999998</v>
       </c>
       <c r="I15">
-        <v>224.82</v>
+        <v>237.52199999999999</v>
       </c>
       <c r="J15">
-        <v>3045.614</v>
+        <v>2462.8380000000002</v>
       </c>
       <c r="K15">
-        <v>9.5</v>
+        <v>235.08600000000001</v>
       </c>
       <c r="L15">
-        <v>-143.625</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-601.42700000000002</v>
       </c>
       <c r="N15">
-        <v>1394.643</v>
+        <v>1325.761</v>
       </c>
       <c r="O15">
-        <v>9073.0959999999995</v>
+        <v>6524.9960000000001</v>
       </c>
       <c r="P15">
-        <v>3595.538</v>
+        <v>3139.0030000000002</v>
       </c>
       <c r="Q15">
-        <v>93.894999999999996</v>
+        <v>-116.211</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4377.701</v>
+        <v>2850.3960000000002</v>
       </c>
       <c r="U15">
-        <v>103.42100000000001</v>
+        <v>19.193999999999999</v>
       </c>
       <c r="V15">
-        <v>249.15700000000001</v>
+        <v>225.22800000000001</v>
       </c>
       <c r="W15">
-        <v>-62.52</v>
+        <v>-41.08</v>
       </c>
       <c r="X15">
-        <v>53.246000000000002</v>
+        <v>-311.75</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>91.85</v>
       </c>
       <c r="AA15">
-        <v>15.766</v>
+        <v>31.425999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>132.458</v>
+        <v>72.64</v>
       </c>
       <c r="D16">
-        <v>906.26400000000001</v>
+        <v>702.21500000000003</v>
       </c>
       <c r="E16">
-        <v>495.065</v>
+        <v>456.23200000000003</v>
       </c>
       <c r="F16">
-        <v>404.18799999999999</v>
+        <v>214.76400000000001</v>
       </c>
       <c r="G16">
-        <v>999.072</v>
+        <v>1062.22</v>
       </c>
       <c r="H16">
-        <v>13690.316999999999</v>
+        <v>9741.9779999999992</v>
       </c>
       <c r="I16">
-        <v>320.779</v>
+        <v>278.00599999999997</v>
       </c>
       <c r="J16">
-        <v>2999.5129999999999</v>
+        <v>2933.7359999999999</v>
       </c>
       <c r="K16">
-        <v>176.65</v>
+        <v>127.80200000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1551.7070000000001</v>
+        <v>1087.306</v>
       </c>
       <c r="O16">
-        <v>9308.4549999999999</v>
+        <v>6847.4179999999997</v>
       </c>
       <c r="P16">
-        <v>3545.0039999999999</v>
+        <v>3329.7489999999998</v>
       </c>
       <c r="Q16">
-        <v>-94.26</v>
+        <v>151.298</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4381.8620000000001</v>
+        <v>2894.56</v>
       </c>
       <c r="U16">
-        <v>9.1609999999999996</v>
+        <v>271.81599999999997</v>
       </c>
       <c r="V16">
-        <v>215.90899999999999</v>
+        <v>171.19200000000001</v>
       </c>
       <c r="W16">
-        <v>-62.618000000000002</v>
+        <v>-41.112000000000002</v>
       </c>
       <c r="X16">
-        <v>-125.709</v>
+        <v>151.45400000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-99.8</v>
       </c>
       <c r="AA16">
-        <v>132.458</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>243.96100000000001</v>
+        <v>105.4</v>
       </c>
       <c r="D17">
-        <v>1172.6669999999999</v>
+        <v>847.16499999999996</v>
       </c>
       <c r="E17">
-        <v>543.75300000000004</v>
+        <v>544.41999999999996</v>
       </c>
       <c r="F17">
-        <v>566.88800000000003</v>
+        <v>343.30399999999997</v>
       </c>
       <c r="G17">
-        <v>1040.932</v>
+        <v>1258.7670000000001</v>
       </c>
       <c r="H17">
-        <v>13980.348</v>
+        <v>9967.5789999999997</v>
       </c>
       <c r="I17">
-        <v>278.83499999999998</v>
+        <v>315.31900000000002</v>
       </c>
       <c r="J17">
-        <v>3037.8009999999999</v>
+        <v>2632.0619999999999</v>
       </c>
       <c r="K17">
-        <v>19.149999999999999</v>
+        <v>94.203999999999994</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1445.518</v>
+        <v>1487.2439999999999</v>
       </c>
       <c r="O17">
-        <v>9336.3349999999991</v>
+        <v>6990.826</v>
       </c>
       <c r="P17">
-        <v>3425.7919999999999</v>
+        <v>3293.2570000000001</v>
       </c>
       <c r="Q17">
-        <v>1.31</v>
+        <v>-45.106999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4644.0129999999999</v>
+        <v>2976.7530000000002</v>
       </c>
       <c r="U17">
-        <v>10.471</v>
+        <v>373.06400000000002</v>
       </c>
       <c r="V17">
-        <v>421.85199999999998</v>
+        <v>236.09700000000001</v>
       </c>
       <c r="W17">
-        <v>-62.64</v>
+        <v>-41.093000000000004</v>
       </c>
       <c r="X17">
-        <v>-179.75299999999999</v>
+        <v>-69.445999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-123.254</v>
       </c>
       <c r="AA17">
-        <v>243.96100000000001</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>5.41</v>
+        <v>33.728999999999999</v>
       </c>
       <c r="D18">
-        <v>726.45</v>
+        <v>713.28099999999995</v>
       </c>
       <c r="E18">
-        <v>395.17899999999997</v>
+        <v>456.19400000000002</v>
       </c>
       <c r="F18">
-        <v>209.119</v>
+        <v>233.74</v>
       </c>
       <c r="G18">
-        <v>973.43499999999995</v>
+        <v>1137.1300000000001</v>
       </c>
       <c r="H18">
-        <v>14288.89</v>
+        <v>9896.7469999999994</v>
       </c>
       <c r="I18">
-        <v>295.21100000000001</v>
+        <v>373.52600000000001</v>
       </c>
       <c r="J18">
-        <v>3006.5729999999999</v>
+        <v>2584.9850000000001</v>
       </c>
       <c r="K18">
-        <v>147.4</v>
+        <v>71.03</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1559.143</v>
+        <v>1625.896</v>
       </c>
       <c r="O18">
-        <v>9769.7880000000005</v>
+        <v>6946.5510000000004</v>
       </c>
       <c r="P18">
-        <v>3537.5430000000001</v>
+        <v>3273.18</v>
       </c>
       <c r="Q18">
-        <v>-2.867</v>
+        <v>36.457000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6366</v>
+        <v>7200</v>
       </c>
       <c r="T18">
-        <v>4519.1019999999999</v>
+        <v>2950.1959999999999</v>
       </c>
       <c r="U18">
-        <v>7.6040000000000001</v>
+        <v>163.36600000000001</v>
       </c>
       <c r="V18">
-        <v>212.709</v>
+        <v>218.375</v>
       </c>
       <c r="W18">
-        <v>-58.893000000000001</v>
+        <v>-43.487000000000002</v>
       </c>
       <c r="X18">
-        <v>73.334999999999994</v>
+        <v>-49.786999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>64.98</v>
       </c>
       <c r="AA18">
-        <v>5.41</v>
+        <v>33.728999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>16.122</v>
+        <v>24.448</v>
       </c>
       <c r="D19">
-        <v>671.21900000000005</v>
+        <v>585.35799999999995</v>
       </c>
       <c r="E19">
-        <v>334.29700000000003</v>
+        <v>339.06200000000001</v>
       </c>
       <c r="F19">
-        <v>233.03800000000001</v>
+        <v>225.708</v>
       </c>
       <c r="G19">
-        <v>935.44200000000001</v>
+        <v>1135.742</v>
       </c>
       <c r="H19">
-        <v>14435.703</v>
+        <v>10017.214</v>
       </c>
       <c r="I19">
-        <v>271.48899999999998</v>
+        <v>194.54</v>
       </c>
       <c r="J19">
-        <v>3281.319</v>
+        <v>2576.36</v>
       </c>
       <c r="K19">
-        <v>44.5</v>
+        <v>63.252000000000002</v>
       </c>
       <c r="L19">
-        <v>-102.9</v>
+        <v>-7.7779999999999996</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-264.80500000000001</v>
       </c>
       <c r="N19">
-        <v>1370.9760000000001</v>
+        <v>1587.367</v>
       </c>
       <c r="O19">
-        <v>9882.6959999999999</v>
+        <v>7024.1719999999996</v>
       </c>
       <c r="P19">
-        <v>3709.3890000000001</v>
+        <v>3157.4169999999999</v>
       </c>
       <c r="Q19">
-        <v>4.0599999999999996</v>
+        <v>8.75</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4553.0069999999996</v>
+        <v>2993.0419999999999</v>
       </c>
       <c r="U19">
-        <v>11.664</v>
+        <v>172.11600000000001</v>
       </c>
       <c r="V19">
-        <v>144.148</v>
+        <v>162.35</v>
       </c>
       <c r="W19">
-        <v>-64.061000000000007</v>
+        <v>-43.665999999999997</v>
       </c>
       <c r="X19">
-        <v>92.728999999999999</v>
+        <v>-118.373</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>81.174999999999997</v>
       </c>
       <c r="AA19">
-        <v>16.122</v>
+        <v>24.448</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>122.902</v>
+        <v>26.734999999999999</v>
       </c>
       <c r="D20">
-        <v>890.64800000000002</v>
+        <v>755.34199999999998</v>
       </c>
       <c r="E20">
-        <v>471.93400000000003</v>
+        <v>461.30700000000002</v>
       </c>
       <c r="F20">
-        <v>398.20600000000002</v>
+        <v>316.34899999999999</v>
       </c>
       <c r="G20">
-        <v>1031.7560000000001</v>
+        <v>1851.89</v>
       </c>
       <c r="H20">
-        <v>14701.483</v>
+        <v>10733.004999999999</v>
       </c>
       <c r="I20">
-        <v>326.11900000000003</v>
+        <v>264.25200000000001</v>
       </c>
       <c r="J20">
-        <v>3565.857</v>
+        <v>2772.4580000000001</v>
       </c>
       <c r="K20">
-        <v>157.5</v>
+        <v>93.388000000000005</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1336.8589999999999</v>
+        <v>1922.0070000000001</v>
       </c>
       <c r="O20">
-        <v>10175.84</v>
+        <v>7480.5770000000002</v>
       </c>
       <c r="P20">
-        <v>3826.08</v>
+        <v>3518.0590000000002</v>
       </c>
       <c r="Q20">
-        <v>1.893</v>
+        <v>128.28700000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4525.643</v>
+        <v>3252.4279999999999</v>
       </c>
       <c r="U20">
-        <v>13.557</v>
+        <v>300.40300000000002</v>
       </c>
       <c r="V20">
-        <v>250.14599999999999</v>
+        <v>171.79599999999999</v>
       </c>
       <c r="W20">
-        <v>-64.180000000000007</v>
+        <v>-46.698</v>
       </c>
       <c r="X20">
-        <v>28.433</v>
+        <v>569.90700000000004</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-229.733</v>
       </c>
       <c r="AA20">
-        <v>122.902</v>
+        <v>26.734999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>257.11599999999999</v>
+        <v>103.73699999999999</v>
       </c>
       <c r="D21">
-        <v>1199.146</v>
+        <v>955.58299999999997</v>
       </c>
       <c r="E21">
-        <v>520.73299999999995</v>
+        <v>579.952</v>
       </c>
       <c r="F21">
-        <v>614.85</v>
+        <v>438.67099999999999</v>
       </c>
       <c r="G21">
-        <v>1061.979</v>
+        <v>2892.951</v>
       </c>
       <c r="H21">
-        <v>14875.018</v>
+        <v>12068.174999999999</v>
       </c>
       <c r="I21">
-        <v>233.97</v>
+        <v>381.33100000000002</v>
       </c>
       <c r="J21">
-        <v>3257.3470000000002</v>
+        <v>2569.4490000000001</v>
       </c>
       <c r="K21">
-        <v>57</v>
+        <v>59.725000000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1523.3620000000001</v>
+        <v>2882.5070000000001</v>
       </c>
       <c r="O21">
-        <v>10083.699000000001</v>
+        <v>8527.6679999999997</v>
       </c>
       <c r="P21">
-        <v>3725.78</v>
+        <v>3428.8310000000001</v>
       </c>
       <c r="Q21">
-        <v>-0.55000000000000004</v>
+        <v>570.85</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4791.3190000000004</v>
+        <v>3540.5070000000001</v>
       </c>
       <c r="U21">
-        <v>13.007</v>
+        <v>871.25300000000004</v>
       </c>
       <c r="V21">
-        <v>427.07900000000001</v>
+        <v>552.86300000000006</v>
       </c>
       <c r="W21">
-        <v>-64.224999999999994</v>
+        <v>-46.87</v>
       </c>
       <c r="X21">
-        <v>-164.34399999999999</v>
+        <v>-146.221</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>261.012</v>
       </c>
       <c r="AA21">
-        <v>257.11599999999999</v>
+        <v>103.73699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>41.116999999999997</v>
+        <v>21.347000000000001</v>
       </c>
       <c r="D22">
-        <v>734.43</v>
+        <v>691.67200000000003</v>
       </c>
       <c r="E22">
-        <v>367.80599999999998</v>
+        <v>497.702</v>
       </c>
       <c r="F22">
-        <v>279.67399999999998</v>
+        <v>204.80199999999999</v>
       </c>
       <c r="G22">
-        <v>890.51599999999996</v>
+        <v>1891.3920000000001</v>
       </c>
       <c r="H22">
-        <v>15028.258</v>
+        <v>11322.645</v>
       </c>
       <c r="I22">
-        <v>297.48</v>
+        <v>377.10700000000003</v>
       </c>
       <c r="J22">
-        <v>3462.3910000000001</v>
+        <v>2608.4549999999999</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.673</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,120 +2552,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1442.317</v>
+        <v>2272.0729999999999</v>
       </c>
       <c r="O22">
-        <v>10308.800999999999</v>
+        <v>7897.6809999999996</v>
       </c>
       <c r="P22">
-        <v>3819.971</v>
+        <v>3009.0749999999998</v>
       </c>
       <c r="Q22">
-        <v>26.481000000000002</v>
+        <v>-717.25</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6407</v>
+        <v>7300</v>
       </c>
       <c r="T22">
-        <v>4719.4570000000003</v>
+        <v>3424.9639999999999</v>
       </c>
       <c r="U22">
-        <v>39.488</v>
+        <v>154.00299999999999</v>
       </c>
       <c r="V22">
-        <v>272.95400000000001</v>
+        <v>-156.71299999999999</v>
       </c>
       <c r="W22">
-        <v>-67.561000000000007</v>
+        <v>-49.442999999999998</v>
       </c>
       <c r="X22">
-        <v>46.972000000000001</v>
+        <v>-459.88</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>68.748999999999995</v>
       </c>
       <c r="AA22">
-        <v>41.116999999999997</v>
+        <v>21.347000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>4.4530000000000003</v>
+        <v>12.455</v>
       </c>
       <c r="D23">
-        <v>677.16700000000003</v>
+        <v>670.20600000000002</v>
       </c>
       <c r="E23">
-        <v>303.17599999999999</v>
+        <v>375.13400000000001</v>
       </c>
       <c r="F23">
-        <v>212.68700000000001</v>
+        <v>188.87899999999999</v>
       </c>
       <c r="G23">
-        <v>826.02499999999998</v>
+        <v>1409.761</v>
       </c>
       <c r="H23">
-        <v>15185.101000000001</v>
+        <v>10756.128000000001</v>
       </c>
       <c r="I23">
-        <v>234.946</v>
+        <v>259.149</v>
       </c>
       <c r="J23">
-        <v>3463.0320000000002</v>
+        <v>2782.2269999999999</v>
       </c>
       <c r="K23">
-        <v>261.8</v>
+        <v>10.603</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-39.587000000000003</v>
       </c>
       <c r="N23">
-        <v>1585.902</v>
+        <v>1796.921</v>
       </c>
       <c r="O23">
-        <v>10444.688</v>
+        <v>7545.3969999999999</v>
       </c>
       <c r="P23">
-        <v>4082.4119999999998</v>
+        <v>3176.8850000000002</v>
       </c>
       <c r="Q23">
-        <v>-25.004000000000001</v>
+        <v>160.852</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4740.4129999999996</v>
+        <v>3210.7310000000002</v>
       </c>
       <c r="U23">
-        <v>14.484</v>
+        <v>314.85500000000002</v>
       </c>
       <c r="V23">
-        <v>144.209</v>
+        <v>3.0569999999999999</v>
       </c>
       <c r="W23">
-        <v>-67.611000000000004</v>
+        <v>-49.607999999999997</v>
       </c>
       <c r="X23">
-        <v>203.09200000000001</v>
+        <v>126.098</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>4.4530000000000003</v>
+        <v>12.455</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>121.30800000000001</v>
+        <v>112.154</v>
       </c>
       <c r="D24">
-        <v>915.39400000000001</v>
+        <v>925.02800000000002</v>
       </c>
       <c r="E24">
-        <v>473.71600000000001</v>
+        <v>505.21800000000002</v>
       </c>
       <c r="F24">
-        <v>398.267</v>
+        <v>321.62400000000002</v>
       </c>
       <c r="G24">
-        <v>963.38699999999994</v>
+        <v>1233.653</v>
       </c>
       <c r="H24">
-        <v>15538.565000000001</v>
+        <v>10649.699000000001</v>
       </c>
       <c r="I24">
-        <v>316.589</v>
+        <v>293.38600000000002</v>
       </c>
       <c r="J24">
-        <v>3897.835</v>
+        <v>2815.665</v>
       </c>
       <c r="K24">
-        <v>64.14</v>
+        <v>174.01900000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1478.5440000000001</v>
+        <v>1560.2090000000001</v>
       </c>
       <c r="O24">
-        <v>10819.382</v>
+        <v>7364.77</v>
       </c>
       <c r="P24">
-        <v>4255.5550000000003</v>
+        <v>3075.2849999999999</v>
       </c>
       <c r="Q24">
-        <v>28.556000000000001</v>
+        <v>-299.24700000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4719.183</v>
+        <v>3284.9290000000001</v>
       </c>
       <c r="U24">
-        <v>43.04</v>
+        <v>15.608000000000001</v>
       </c>
       <c r="V24">
-        <v>278.26600000000002</v>
+        <v>53.167999999999999</v>
       </c>
       <c r="W24">
-        <v>-67.724000000000004</v>
+        <v>-49.619</v>
       </c>
       <c r="X24">
-        <v>93.441999999999993</v>
+        <v>-146.80699999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>121.30800000000001</v>
+        <v>112.154</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>263.02699999999999</v>
+        <v>184.167</v>
       </c>
       <c r="D25">
-        <v>1166.922</v>
+        <v>1076.442</v>
       </c>
       <c r="E25">
-        <v>471.952</v>
+        <v>570.57100000000003</v>
       </c>
       <c r="F25">
-        <v>613.23400000000004</v>
+        <v>438.137</v>
       </c>
       <c r="G25">
-        <v>977.49199999999996</v>
+        <v>1761.816</v>
       </c>
       <c r="H25">
-        <v>15805.726000000001</v>
+        <v>11257.199000000001</v>
       </c>
       <c r="I25">
-        <v>248.13300000000001</v>
+        <v>315.02699999999999</v>
       </c>
       <c r="J25">
-        <v>4145.366</v>
+        <v>3237.4229999999998</v>
       </c>
       <c r="K25">
-        <v>117.3</v>
+        <v>57.4</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1109.7180000000001</v>
+        <v>1681.27</v>
       </c>
       <c r="O25">
-        <v>10813.591</v>
+        <v>7862.1270000000004</v>
       </c>
       <c r="P25">
-        <v>4279.5360000000001</v>
+        <v>3380.2629999999999</v>
       </c>
       <c r="Q25">
-        <v>5.2270000000000003</v>
+        <v>112.614</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4992.1350000000002</v>
+        <v>3395.0720000000001</v>
       </c>
       <c r="U25">
-        <v>48.267000000000003</v>
+        <v>128.22200000000001</v>
       </c>
       <c r="V25">
-        <v>342.57499999999999</v>
+        <v>226.99799999999999</v>
       </c>
       <c r="W25">
-        <v>-67.78</v>
+        <v>-49.649000000000001</v>
       </c>
       <c r="X25">
-        <v>-42.338999999999999</v>
+        <v>272.03500000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-203.31700000000001</v>
       </c>
       <c r="AA25">
-        <v>263.02699999999999</v>
+        <v>184.167</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>53.246000000000002</v>
+        <v>18.478999999999999</v>
       </c>
       <c r="D26">
-        <v>739.19899999999996</v>
+        <v>730.072</v>
       </c>
       <c r="E26">
-        <v>355.40300000000002</v>
+        <v>496.03100000000001</v>
       </c>
       <c r="F26">
-        <v>275.66500000000002</v>
+        <v>185.684</v>
       </c>
       <c r="G26">
-        <v>822.21900000000005</v>
+        <v>1474.662</v>
       </c>
       <c r="H26">
-        <v>16004.253000000001</v>
+        <v>11455.942999999999</v>
       </c>
       <c r="I26">
-        <v>264.63099999999997</v>
+        <v>346.04700000000003</v>
       </c>
       <c r="J26">
-        <v>4021.7849999999999</v>
+        <v>3232.6329999999998</v>
       </c>
       <c r="K26">
-        <v>177.2</v>
+        <v>35.75</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1292.9459999999999</v>
+        <v>1458.56</v>
       </c>
       <c r="O26">
-        <v>11068.341</v>
+        <v>8009.8270000000002</v>
       </c>
       <c r="P26">
-        <v>4323.9849999999997</v>
+        <v>3269.9789999999998</v>
       </c>
       <c r="Q26">
-        <v>-39.386000000000003</v>
+        <v>-41.012</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6339</v>
+        <v>7400</v>
       </c>
       <c r="T26">
-        <v>4935.9120000000003</v>
+        <v>3446.116</v>
       </c>
       <c r="U26">
-        <v>8.8810000000000002</v>
+        <v>87.21</v>
       </c>
       <c r="V26">
-        <v>258.33999999999997</v>
+        <v>110.279</v>
       </c>
       <c r="W26">
-        <v>-71.114000000000004</v>
+        <v>-52.344000000000001</v>
       </c>
       <c r="X26">
-        <v>-56.113999999999997</v>
+        <v>-142.88800000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>170.61699999999999</v>
       </c>
       <c r="AA26">
-        <v>53.246000000000002</v>
+        <v>18.478999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>23.312000000000001</v>
+        <v>16.53</v>
       </c>
       <c r="D27">
-        <v>677.72799999999995</v>
+        <v>695.01700000000005</v>
       </c>
       <c r="E27">
-        <v>290.45499999999998</v>
+        <v>366.30200000000002</v>
       </c>
       <c r="F27">
-        <v>239.262</v>
+        <v>200.80600000000001</v>
       </c>
       <c r="G27">
-        <v>794.99599999999998</v>
+        <v>971.10199999999998</v>
       </c>
       <c r="H27">
-        <v>16192.825000000001</v>
+        <v>11008.957</v>
       </c>
       <c r="I27">
-        <v>250.197</v>
+        <v>226.649</v>
       </c>
       <c r="J27">
-        <v>4273.8900000000003</v>
+        <v>3186.998</v>
       </c>
       <c r="K27">
-        <v>207.297</v>
+        <v>71.05</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-39.305</v>
       </c>
       <c r="N27">
-        <v>1193.8130000000001</v>
+        <v>1090.885</v>
       </c>
       <c r="O27">
-        <v>11226.885</v>
+        <v>7560.0349999999999</v>
       </c>
       <c r="P27">
-        <v>4606.1869999999999</v>
+        <v>3319.4760000000001</v>
       </c>
       <c r="Q27">
-        <v>-5.8529999999999998</v>
+        <v>34.042999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4965.9399999999996</v>
+        <v>3448.922</v>
       </c>
       <c r="U27">
-        <v>3.028</v>
+        <v>121.253</v>
       </c>
       <c r="V27">
-        <v>140.05099999999999</v>
+        <v>214.58099999999999</v>
       </c>
       <c r="W27">
-        <v>-71.177000000000007</v>
+        <v>-52.494999999999997</v>
       </c>
       <c r="X27">
-        <v>202.78</v>
+        <v>3.4630000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AA27">
-        <v>23.312000000000001</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>167.44300000000001</v>
+        <v>78.994</v>
       </c>
       <c r="D28">
-        <v>944.58699999999999</v>
+        <v>862.90200000000004</v>
       </c>
       <c r="E28">
-        <v>504.81799999999998</v>
+        <v>498.94299999999998</v>
       </c>
       <c r="F28">
-        <v>468.99099999999999</v>
+        <v>294.80500000000001</v>
       </c>
       <c r="G28">
-        <v>1068.204</v>
+        <v>993.52200000000005</v>
       </c>
       <c r="H28">
-        <v>16669.726999999999</v>
+        <v>11181.714</v>
       </c>
       <c r="I28">
-        <v>270.262</v>
+        <v>338.72500000000002</v>
       </c>
       <c r="J28">
-        <v>4192.5200000000004</v>
+        <v>3232.6610000000001</v>
       </c>
       <c r="K28">
-        <v>482</v>
+        <v>140.34399999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1638.5940000000001</v>
+        <v>1269.7619999999999</v>
       </c>
       <c r="O28">
-        <v>11679.65</v>
+        <v>7758.5010000000002</v>
       </c>
       <c r="P28">
-        <v>4881.5200000000004</v>
+        <v>3439.32</v>
       </c>
       <c r="Q28">
-        <v>1.925</v>
+        <v>-97.781000000000006</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4990.0770000000002</v>
+        <v>3423.2130000000002</v>
       </c>
       <c r="U28">
-        <v>4.9530000000000003</v>
+        <v>23.472000000000001</v>
       </c>
       <c r="V28">
-        <v>150.511</v>
+        <v>75.739000000000004</v>
       </c>
       <c r="W28">
-        <v>-71.343000000000004</v>
+        <v>-52.615000000000002</v>
       </c>
       <c r="X28">
-        <v>190.97</v>
+        <v>70.935000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>167.44300000000001</v>
+        <v>78.994</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>276.072</v>
+        <v>208.708</v>
       </c>
       <c r="D29">
-        <v>1183.3219999999999</v>
+        <v>1205.2339999999999</v>
       </c>
       <c r="E29">
-        <v>574.48299999999995</v>
+        <v>630.78300000000002</v>
       </c>
       <c r="F29">
-        <v>642.01400000000001</v>
+        <v>479.63799999999998</v>
       </c>
       <c r="G29">
-        <v>1174.2049999999999</v>
+        <v>1068.972</v>
       </c>
       <c r="H29">
-        <v>16977.866999999998</v>
+        <v>11396.004999999999</v>
       </c>
       <c r="I29">
-        <v>236.74600000000001</v>
+        <v>305.42</v>
       </c>
       <c r="J29">
-        <v>4491.0479999999998</v>
+        <v>3229.35</v>
       </c>
       <c r="K29">
-        <v>131.4</v>
+        <v>273.608</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1303.143</v>
+        <v>1306.345</v>
       </c>
       <c r="O29">
-        <v>11700.26</v>
+        <v>7827.4390000000003</v>
       </c>
       <c r="P29">
-        <v>4829.4480000000003</v>
+        <v>3570.1889999999999</v>
       </c>
       <c r="Q29">
-        <v>5.7210000000000001</v>
+        <v>20.442</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5277.607</v>
+        <v>3568.5659999999998</v>
       </c>
       <c r="U29">
-        <v>10.673999999999999</v>
+        <v>43.914000000000001</v>
       </c>
       <c r="V29">
-        <v>481.36200000000002</v>
+        <v>187.154</v>
       </c>
       <c r="W29">
-        <v>-71.406999999999996</v>
+        <v>-52.661999999999999</v>
       </c>
       <c r="X29">
-        <v>-124.242</v>
+        <v>82.893000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>276.072</v>
+        <v>208.708</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>21.629000000000001</v>
+        <v>2.911</v>
       </c>
       <c r="D30">
-        <v>759.65899999999999</v>
+        <v>553.86099999999999</v>
       </c>
       <c r="E30">
-        <v>415.06799999999998</v>
+        <v>451.22500000000002</v>
       </c>
       <c r="F30">
-        <v>284.62099999999998</v>
+        <v>179.06800000000001</v>
       </c>
       <c r="G30">
-        <v>1016.288</v>
+        <v>906.92899999999997</v>
       </c>
       <c r="H30">
-        <v>17019.081999999999</v>
+        <v>11162.209000000001</v>
       </c>
       <c r="I30">
-        <v>256.44200000000001</v>
+        <v>323.346</v>
       </c>
       <c r="J30">
-        <v>4789.7129999999997</v>
+        <v>3127.125</v>
       </c>
       <c r="K30">
-        <v>95.4</v>
+        <v>340.661</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1197.8520000000001</v>
+        <v>1344.4490000000001</v>
       </c>
       <c r="O30">
-        <v>11883.352000000001</v>
+        <v>7630.598</v>
       </c>
       <c r="P30">
-        <v>4967.1130000000003</v>
+        <v>3631.5590000000002</v>
       </c>
       <c r="Q30">
-        <v>3.218</v>
+        <v>12.407</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>6292</v>
+        <v>7600</v>
       </c>
       <c r="T30">
-        <v>5135.7299999999996</v>
+        <v>3531.6109999999999</v>
       </c>
       <c r="U30">
-        <v>13.891999999999999</v>
+        <v>56.320999999999998</v>
       </c>
       <c r="V30">
-        <v>346.11200000000002</v>
+        <v>180.46199999999999</v>
       </c>
       <c r="W30">
-        <v>-75.866</v>
+        <v>-52.701000000000001</v>
       </c>
       <c r="X30">
-        <v>46.003999999999998</v>
+        <v>27.238</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>21.629000000000001</v>
+        <v>2.911</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>3.2210000000000001</v>
+        <v>-4.4729999999999999</v>
       </c>
       <c r="D31">
-        <v>692.71400000000006</v>
+        <v>688.25599999999997</v>
       </c>
       <c r="E31">
-        <v>329.13099999999997</v>
+        <v>388.565</v>
       </c>
       <c r="F31">
-        <v>229.922</v>
+        <v>170.91200000000001</v>
       </c>
       <c r="G31">
-        <v>957.404</v>
+        <v>905.52800000000002</v>
       </c>
       <c r="H31">
-        <v>17148.306</v>
+        <v>11197.576999999999</v>
       </c>
       <c r="I31">
-        <v>205.16900000000001</v>
+        <v>218.596</v>
       </c>
       <c r="J31">
-        <v>4290.5330000000004</v>
+        <v>3114.5790000000002</v>
       </c>
       <c r="K31">
-        <v>369.9</v>
+        <v>342.62599999999998</v>
       </c>
       <c r="L31">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-29.295000000000002</v>
       </c>
       <c r="N31">
-        <v>1874.3910000000001</v>
+        <v>1341.5709999999999</v>
       </c>
       <c r="O31">
-        <v>11994.635</v>
+        <v>7653.3760000000002</v>
       </c>
       <c r="P31">
-        <v>5242.433</v>
+        <v>3650.098</v>
       </c>
       <c r="Q31">
-        <v>1.548</v>
+        <v>-38.787999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5153.6710000000003</v>
+        <v>3544.201</v>
       </c>
       <c r="U31">
-        <v>15.44</v>
+        <v>17.533000000000001</v>
       </c>
       <c r="V31">
-        <v>166.87200000000001</v>
+        <v>245.85400000000001</v>
       </c>
       <c r="W31">
-        <v>-75.903000000000006</v>
+        <v>-52.759</v>
       </c>
       <c r="X31">
-        <v>195.76900000000001</v>
+        <v>-36.524000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>3.2210000000000001</v>
+        <v>-4.4729999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>166.738</v>
+        <v>133.86199999999999</v>
       </c>
       <c r="D32">
-        <v>974.12300000000005</v>
+        <v>880.89499999999998</v>
       </c>
       <c r="E32">
-        <v>525.17100000000005</v>
+        <v>501.14800000000002</v>
       </c>
       <c r="F32">
-        <v>448.63900000000001</v>
+        <v>314.21100000000001</v>
       </c>
       <c r="G32">
-        <v>1118.711</v>
+        <v>1035.9670000000001</v>
       </c>
       <c r="H32">
-        <v>17492.172999999999</v>
+        <v>11577.99</v>
       </c>
       <c r="I32">
-        <v>260.28500000000003</v>
+        <v>309.30500000000001</v>
       </c>
       <c r="J32">
-        <v>4191.5249999999996</v>
+        <v>3086.1849999999999</v>
       </c>
       <c r="K32">
-        <v>616.24900000000002</v>
+        <v>266.45100000000002</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2238.8850000000002</v>
+        <v>1183.7190000000001</v>
       </c>
       <c r="O32">
-        <v>12332.739</v>
+        <v>7830.1769999999997</v>
       </c>
       <c r="P32">
-        <v>5407.7740000000003</v>
+        <v>3475.4830000000002</v>
       </c>
       <c r="Q32">
-        <v>-11.601000000000001</v>
+        <v>79.015000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5159.4340000000002</v>
+        <v>3747.8130000000001</v>
       </c>
       <c r="U32">
-        <v>3.839</v>
+        <v>96.548000000000002</v>
       </c>
       <c r="V32">
-        <v>228.93</v>
+        <v>432.98200000000003</v>
       </c>
       <c r="W32">
-        <v>-76.039000000000001</v>
+        <v>-52.832999999999998</v>
       </c>
       <c r="X32">
-        <v>77.471999999999994</v>
+        <v>-222.946</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>166.738</v>
+        <v>133.86199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>315.012</v>
+        <v>151.58600000000001</v>
       </c>
       <c r="D33">
-        <v>1268.0340000000001</v>
+        <v>1070.088</v>
       </c>
       <c r="E33">
-        <v>561.87199999999996</v>
+        <v>548.66899999999998</v>
       </c>
       <c r="F33">
-        <v>631.553</v>
+        <v>411.19200000000001</v>
       </c>
       <c r="G33">
-        <v>1207.19</v>
+        <v>999.70299999999997</v>
       </c>
       <c r="H33">
-        <v>17671.955000000002</v>
+        <v>11452.878000000001</v>
       </c>
       <c r="I33">
-        <v>249.059</v>
+        <v>307.41000000000003</v>
       </c>
       <c r="J33">
-        <v>4487.3639999999996</v>
+        <v>3047.404</v>
       </c>
       <c r="K33">
-        <v>128.19999999999999</v>
+        <v>441.54700000000003</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1734.788</v>
+        <v>1361.336</v>
       </c>
       <c r="O33">
-        <v>12186.093999999999</v>
+        <v>7839.893</v>
       </c>
       <c r="P33">
-        <v>5215.5640000000003</v>
+        <v>3644.768</v>
       </c>
       <c r="Q33">
-        <v>61.152000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5485.8609999999999</v>
+        <v>3612.9850000000001</v>
       </c>
       <c r="U33">
-        <v>64.991</v>
+        <v>104.52800000000001</v>
       </c>
       <c r="V33">
-        <v>563.96100000000001</v>
+        <v>105.105</v>
       </c>
       <c r="W33">
-        <v>-76.094999999999999</v>
+        <v>-52.884999999999998</v>
       </c>
       <c r="X33">
-        <v>-268.589</v>
+        <v>120.822</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>315.012</v>
+        <v>151.58600000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>26.076000000000001</v>
+        <v>-38.85</v>
       </c>
       <c r="D34">
-        <v>756.37599999999998</v>
+        <v>671.31899999999996</v>
       </c>
       <c r="E34">
-        <v>400.988</v>
+        <v>389.38799999999998</v>
       </c>
       <c r="F34">
-        <v>268.27300000000002</v>
+        <v>176.601</v>
       </c>
       <c r="G34">
-        <v>924.99099999999999</v>
+        <v>882.48199999999997</v>
       </c>
       <c r="H34">
-        <v>17664.202000000001</v>
+        <v>11620.093000000001</v>
       </c>
       <c r="I34">
-        <v>277.33600000000001</v>
+        <v>261.029</v>
       </c>
       <c r="J34">
-        <v>4638.232</v>
+        <v>3031.6030000000001</v>
       </c>
       <c r="K34">
-        <v>76.400000000000006</v>
+        <v>670.46900000000005</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1648.9639999999999</v>
+        <v>1505.9280000000001</v>
       </c>
       <c r="O34">
-        <v>12315.496999999999</v>
+        <v>8126.7250000000004</v>
       </c>
       <c r="P34">
-        <v>5214.6319999999996</v>
+        <v>3879.7179999999998</v>
       </c>
       <c r="Q34">
-        <v>-59.225000000000001</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>6259</v>
+        <v>7500</v>
       </c>
       <c r="T34">
-        <v>5348.7049999999999</v>
+        <v>3493.3679999999999</v>
       </c>
       <c r="U34">
-        <v>5.766</v>
+        <v>105.245</v>
       </c>
       <c r="V34">
-        <v>317.38099999999997</v>
+        <v>29.626999999999999</v>
       </c>
       <c r="W34">
-        <v>-80.855000000000004</v>
+        <v>-45.77</v>
       </c>
       <c r="X34">
-        <v>-97.097999999999999</v>
+        <v>189.16300000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>26.076000000000001</v>
+        <v>-38.85</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>17.917999999999999</v>
+        <v>-156.51</v>
       </c>
       <c r="D35">
-        <v>740.53</v>
+        <v>607.37800000000004</v>
       </c>
       <c r="E35">
-        <v>361.19</v>
+        <v>299.29500000000002</v>
       </c>
       <c r="F35">
-        <v>264.30799999999999</v>
+        <v>163.16399999999999</v>
       </c>
       <c r="G35">
-        <v>876.38900000000001</v>
+        <v>801.56399999999996</v>
       </c>
       <c r="H35">
-        <v>17854.107</v>
+        <v>11417.766</v>
       </c>
       <c r="I35">
-        <v>263.65600000000001</v>
+        <v>170.05699999999999</v>
       </c>
       <c r="J35">
-        <v>4886.1080000000002</v>
+        <v>3529.1089999999999</v>
       </c>
       <c r="K35">
-        <v>244.05</v>
+        <v>407.005</v>
       </c>
       <c r="L35">
-        <v>-5</v>
+        <v>-263.464</v>
       </c>
       <c r="M35">
-        <v>-500</v>
+        <v>-16.385999999999999</v>
       </c>
       <c r="N35">
-        <v>1591.3040000000001</v>
+        <v>1032.556</v>
       </c>
       <c r="O35">
-        <v>12472.382</v>
+        <v>8220.4979999999996</v>
       </c>
       <c r="P35">
-        <v>5499.2969999999996</v>
+        <v>4103.0450000000001</v>
       </c>
       <c r="Q35">
-        <v>0.34300000000000003</v>
+        <v>-72.441000000000003</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5381.7250000000004</v>
+        <v>3197.268</v>
       </c>
       <c r="U35">
-        <v>6.109</v>
+        <v>32.804000000000002</v>
       </c>
       <c r="V35">
-        <v>173.43199999999999</v>
+        <v>-56.165999999999997</v>
       </c>
       <c r="W35">
-        <v>-80.897000000000006</v>
+        <v>-51.195999999999998</v>
       </c>
       <c r="X35">
-        <v>81.424000000000007</v>
+        <v>165.75800000000001</v>
       </c>
       <c r="Y35">
-        <v>53.704000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>17.917999999999999</v>
+        <v>-156.51</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>144.14500000000001</v>
+        <v>68.346999999999994</v>
       </c>
       <c r="D36">
-        <v>869.50099999999998</v>
+        <v>818.58799999999997</v>
       </c>
       <c r="E36">
-        <v>454.39800000000002</v>
+        <v>403.16800000000001</v>
       </c>
       <c r="F36">
-        <v>399.73599999999999</v>
+        <v>311.34399999999999</v>
       </c>
       <c r="G36">
-        <v>1028.567</v>
+        <v>1184.8219999999999</v>
       </c>
       <c r="H36">
-        <v>18165.666000000001</v>
+        <v>11862.835999999999</v>
       </c>
       <c r="I36">
-        <v>327.96899999999999</v>
+        <v>202.011</v>
       </c>
       <c r="J36">
-        <v>4886.8789999999999</v>
+        <v>3528.9870000000001</v>
       </c>
       <c r="K36">
-        <v>432.37299999999999</v>
+        <v>390.49799999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1900.961</v>
+        <v>1296.0170000000001</v>
       </c>
       <c r="O36">
-        <v>12808.423000000001</v>
+        <v>8626.8629999999994</v>
       </c>
       <c r="P36">
-        <v>5682.8530000000001</v>
+        <v>4250.6130000000003</v>
       </c>
       <c r="Q36">
-        <v>-4.4610000000000003</v>
+        <v>-15.209</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5357.2430000000004</v>
+        <v>3235.973</v>
       </c>
       <c r="U36">
-        <v>1.6479999999999999</v>
+        <v>17.594999999999999</v>
       </c>
       <c r="V36">
-        <v>172.50200000000001</v>
+        <v>258.56200000000001</v>
       </c>
       <c r="W36">
-        <v>-81.081999999999994</v>
+        <v>-51.243000000000002</v>
       </c>
       <c r="X36">
-        <v>96.162000000000006</v>
+        <v>85.533000000000001</v>
       </c>
       <c r="Y36">
-        <v>53.005000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>144.14500000000001</v>
+        <v>68.346999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>312.27600000000001</v>
+        <v>186.65199999999999</v>
       </c>
       <c r="D37">
-        <v>1190.787</v>
+        <v>1089.0360000000001</v>
       </c>
       <c r="E37">
-        <v>510.505</v>
+        <v>536.24800000000005</v>
       </c>
       <c r="F37">
-        <v>665.35500000000002</v>
+        <v>509.46300000000002</v>
       </c>
       <c r="G37">
-        <v>1133.155</v>
+        <v>1150.8230000000001</v>
       </c>
       <c r="H37">
-        <v>18377.565999999999</v>
+        <v>11831.223</v>
       </c>
       <c r="I37">
-        <v>276.11700000000002</v>
+        <v>208.13399999999999</v>
       </c>
       <c r="J37">
-        <v>4984.9960000000001</v>
+        <v>3519.9340000000002</v>
       </c>
       <c r="K37">
-        <v>57.375</v>
+        <v>142.25200000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1586.7460000000001</v>
+        <v>954.43600000000004</v>
       </c>
       <c r="O37">
-        <v>12695.861000000001</v>
+        <v>8406.06</v>
       </c>
       <c r="P37">
-        <v>5571.0640000000003</v>
+        <v>3810.8629999999998</v>
       </c>
       <c r="Q37">
-        <v>28.204000000000001</v>
+        <v>83.228999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5681.7049999999999</v>
+        <v>3425.163</v>
       </c>
       <c r="U37">
-        <v>29.852</v>
+        <v>100.824</v>
       </c>
       <c r="V37">
-        <v>488.827</v>
+        <v>568.572</v>
       </c>
       <c r="W37">
-        <v>-81.137</v>
+        <v>-51.301000000000002</v>
       </c>
       <c r="X37">
-        <v>-156.24799999999999</v>
+        <v>-490.10899999999998</v>
       </c>
       <c r="Y37">
-        <v>52.472000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>312.27600000000001</v>
+        <v>186.65199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>63.981000000000002</v>
+        <v>-30.158999999999999</v>
       </c>
       <c r="D38">
-        <v>670.39099999999996</v>
+        <v>660.90800000000002</v>
       </c>
       <c r="E38">
-        <v>386.42</v>
+        <v>406.733</v>
       </c>
       <c r="F38">
-        <v>85.073999999999998</v>
+        <v>181.45599999999999</v>
       </c>
       <c r="G38">
-        <v>1030.03</v>
+        <v>928.73699999999997</v>
       </c>
       <c r="H38">
-        <v>18479.246999999999</v>
+        <v>11986.324000000001</v>
       </c>
       <c r="I38">
-        <v>346.44799999999998</v>
+        <v>240.637</v>
       </c>
       <c r="J38">
-        <v>4832.558</v>
+        <v>3496.5239999999999</v>
       </c>
       <c r="K38">
-        <v>114.675</v>
+        <v>153.715</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2078.3649999999998</v>
+        <v>1108.943</v>
       </c>
       <c r="O38">
-        <v>12926.058999999999</v>
+        <v>8558.32</v>
       </c>
       <c r="P38">
-        <v>5811.8180000000002</v>
+        <v>3953.7150000000001</v>
       </c>
       <c r="Q38">
-        <v>-19.568999999999999</v>
+        <v>44.554000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>6210</v>
+        <v>7200</v>
       </c>
       <c r="T38">
-        <v>5553.1880000000001</v>
+        <v>3428.0039999999999</v>
       </c>
       <c r="U38">
-        <v>10.282999999999999</v>
+        <v>145.37799999999999</v>
       </c>
       <c r="V38">
-        <v>121.965</v>
+        <v>296.33699999999999</v>
       </c>
       <c r="W38">
-        <v>-86.527000000000001</v>
+        <v>-51.335999999999999</v>
       </c>
       <c r="X38">
-        <v>157.43</v>
+        <v>-83.436999999999998</v>
       </c>
       <c r="Y38">
-        <v>51.872</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>63.981000000000002</v>
+        <v>-30.158999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>29.992999999999999</v>
+        <v>-6.0140000000000002</v>
       </c>
       <c r="D39">
-        <v>661.93</v>
+        <v>612.26199999999994</v>
       </c>
       <c r="E39">
-        <v>343.94200000000001</v>
+        <v>295.63600000000002</v>
       </c>
       <c r="F39">
-        <v>252.09100000000001</v>
+        <v>190.40899999999999</v>
       </c>
       <c r="G39">
-        <v>1078.307</v>
+        <v>720.61099999999999</v>
       </c>
       <c r="H39">
-        <v>18561.759999999998</v>
+        <v>11934.919</v>
       </c>
       <c r="I39">
-        <v>301.32499999999999</v>
+        <v>219.88800000000001</v>
       </c>
       <c r="J39">
-        <v>4833.3239999999996</v>
+        <v>3306.4760000000001</v>
       </c>
       <c r="K39">
-        <v>563</v>
+        <v>289.61599999999999</v>
       </c>
       <c r="L39">
-        <v>-303.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-150</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="N39">
-        <v>2295.4879999999998</v>
+        <v>1393.7260000000001</v>
       </c>
       <c r="O39">
-        <v>12964.928</v>
+        <v>8604.9189999999999</v>
       </c>
       <c r="P39">
-        <v>6109.8819999999996</v>
+        <v>4085.7179999999998</v>
       </c>
       <c r="Q39">
-        <v>52.856000000000002</v>
+        <v>-141.85</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5596.8320000000003</v>
+        <v>3330</v>
       </c>
       <c r="U39">
-        <v>63.139000000000003</v>
+        <v>3.528</v>
       </c>
       <c r="V39">
-        <v>183.62799999999999</v>
+        <v>-13.675000000000001</v>
       </c>
       <c r="W39">
-        <v>-86.257000000000005</v>
+        <v>-51.420999999999999</v>
       </c>
       <c r="X39">
-        <v>210.38800000000001</v>
+        <v>82.253</v>
       </c>
       <c r="Y39">
-        <v>51.198</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>29.992999999999999</v>
+        <v>-6.0140000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>193.58500000000001</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>929.59</v>
+        <v>802.79499999999996</v>
       </c>
       <c r="E40">
-        <v>459.47899999999998</v>
+        <v>440.05200000000002</v>
       </c>
       <c r="F40">
-        <v>471.81599999999997</v>
+        <v>337.38600000000002</v>
       </c>
       <c r="G40">
-        <v>1147.0889999999999</v>
+        <v>1086.7860000000001</v>
       </c>
       <c r="H40">
-        <v>19307.387999999999</v>
+        <v>12158.2</v>
       </c>
       <c r="I40">
-        <v>316.23</v>
+        <v>261.20299999999997</v>
       </c>
       <c r="J40">
-        <v>5922.1610000000001</v>
+        <v>3326.5239999999999</v>
       </c>
       <c r="K40">
-        <v>291.89999999999998</v>
+        <v>4.6159999999999997</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1496.3630000000001</v>
+        <v>1227.1089999999999</v>
       </c>
       <c r="O40">
-        <v>13696.911</v>
+        <v>8565.1970000000001</v>
       </c>
       <c r="P40">
-        <v>6707.5330000000004</v>
+        <v>3789.8960000000002</v>
       </c>
       <c r="Q40">
-        <v>-56.375999999999998</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5610.4769999999999</v>
+        <v>3593.0030000000002</v>
       </c>
       <c r="U40">
-        <v>6.7629999999999999</v>
+        <v>50.502000000000002</v>
       </c>
       <c r="V40">
-        <v>185.404</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-86.308999999999997</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>69.581000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>409.62099999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>193.58500000000001</v>
+        <v>114.797</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>346.37200000000001</v>
+        <v>233.92</v>
       </c>
       <c r="D41">
-        <v>1254.501</v>
+        <v>1116.71</v>
       </c>
       <c r="E41">
-        <v>574.68700000000001</v>
+        <v>559.54</v>
       </c>
       <c r="F41">
-        <v>756.67899999999997</v>
+        <v>543.14800000000002</v>
       </c>
       <c r="G41">
-        <v>1454.6859999999999</v>
+        <v>1243.3320000000001</v>
       </c>
       <c r="H41">
-        <v>19751.420999999998</v>
+        <v>12435.486999999999</v>
       </c>
       <c r="I41">
-        <v>288.26499999999999</v>
+        <v>253.565</v>
       </c>
       <c r="J41">
-        <v>6316.42</v>
+        <v>3463.306</v>
       </c>
       <c r="K41">
-        <v>57.924999999999997</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1244.7840000000001</v>
+        <v>967.80700000000002</v>
       </c>
       <c r="O41">
-        <v>13784.245999999999</v>
+        <v>8607.2579999999998</v>
       </c>
       <c r="P41">
-        <v>6821.8990000000003</v>
+        <v>3701.819</v>
       </c>
       <c r="Q41">
-        <v>175.16300000000001</v>
+        <v>145.41300000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5967.1750000000002</v>
+        <v>3828.2289999999998</v>
       </c>
       <c r="U41">
-        <v>181.92599999999999</v>
+        <v>195.91499999999999</v>
       </c>
       <c r="V41">
-        <v>402.98700000000002</v>
+        <v>368.08600000000001</v>
       </c>
       <c r="W41">
-        <v>-86.358000000000004</v>
+        <v>-55.2</v>
       </c>
       <c r="X41">
-        <v>75.158000000000001</v>
+        <v>-123.32299999999999</v>
       </c>
       <c r="Y41">
-        <v>358.49</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>346.37200000000001</v>
+        <v>233.92</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>7.35</v>
+      </c>
+      <c r="D42">
+        <v>657.43200000000002</v>
+      </c>
+      <c r="E42">
+        <v>419.51799999999997</v>
+      </c>
+      <c r="F42">
+        <v>201.256</v>
+      </c>
+      <c r="G42">
+        <v>1024.511</v>
+      </c>
+      <c r="H42">
+        <v>12392.998</v>
+      </c>
+      <c r="I42">
+        <v>236.35400000000001</v>
+      </c>
+      <c r="J42">
+        <v>3045.7939999999999</v>
+      </c>
+      <c r="K42">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1449.704</v>
+      </c>
+      <c r="O42">
+        <v>8617.7720000000008</v>
+      </c>
+      <c r="P42">
+        <v>3694.2730000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-85.727000000000004</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>6740</v>
+      </c>
+      <c r="T42">
+        <v>3775.2260000000001</v>
+      </c>
+      <c r="U42">
+        <v>110.188</v>
+      </c>
+      <c r="V42">
+        <v>180.95699999999999</v>
+      </c>
+      <c r="W42">
+        <v>-55.256999999999998</v>
+      </c>
+      <c r="X42">
+        <v>-68.003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-15.135</v>
+      </c>
+      <c r="D43">
+        <v>648.84699999999998</v>
+      </c>
+      <c r="E43">
+        <v>395.822</v>
+      </c>
+      <c r="F43">
+        <v>181.81100000000001</v>
+      </c>
+      <c r="G43">
+        <v>958.01700000000005</v>
+      </c>
+      <c r="H43">
+        <v>12302.89</v>
+      </c>
+      <c r="I43">
+        <v>215.96799999999999</v>
+      </c>
+      <c r="J43">
+        <v>2845.4789999999998</v>
+      </c>
+      <c r="K43">
+        <v>17.3</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-175.17</v>
+      </c>
+      <c r="N43">
+        <v>1674.212</v>
+      </c>
+      <c r="O43">
+        <v>8574.1190000000006</v>
+      </c>
+      <c r="P43">
+        <v>3695.0540000000001</v>
+      </c>
+      <c r="Q43">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3728.7710000000002</v>
+      </c>
+      <c r="U43">
+        <v>114.193</v>
+      </c>
+      <c r="V43">
+        <v>243.49600000000001</v>
+      </c>
+      <c r="W43">
+        <v>-55.3</v>
+      </c>
+      <c r="X43">
+        <v>-46.695999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-15.135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>86.685000000000002</v>
+      </c>
+      <c r="D44">
+        <v>799.79899999999998</v>
+      </c>
+      <c r="E44">
+        <v>454.423</v>
+      </c>
+      <c r="F44">
+        <v>345.16</v>
+      </c>
+      <c r="G44">
+        <v>1036.8530000000001</v>
+      </c>
+      <c r="H44">
+        <v>12474.08</v>
+      </c>
+      <c r="I44">
+        <v>271.75900000000001</v>
+      </c>
+      <c r="J44">
+        <v>2761.6950000000002</v>
+      </c>
+      <c r="K44">
+        <v>7.3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1831.2940000000001</v>
+      </c>
+      <c r="O44">
+        <v>8758.4699999999993</v>
+      </c>
+      <c r="P44">
+        <v>3672.511</v>
+      </c>
+      <c r="Q44">
+        <v>-21.919</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3715.61</v>
+      </c>
+      <c r="U44">
+        <v>92.274000000000001</v>
+      </c>
+      <c r="V44">
+        <v>192.78299999999999</v>
+      </c>
+      <c r="W44">
+        <v>-57.237000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-79.168000000000006</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>86.685000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>255.35900000000001</v>
+      </c>
+      <c r="D45">
+        <v>1124.8409999999999</v>
+      </c>
+      <c r="E45">
+        <v>545.91099999999994</v>
+      </c>
+      <c r="F45">
+        <v>576.91</v>
+      </c>
+      <c r="G45">
+        <v>1591.2349999999999</v>
+      </c>
+      <c r="H45">
+        <v>13150.362999999999</v>
+      </c>
+      <c r="I45">
+        <v>281.64699999999999</v>
+      </c>
+      <c r="J45">
+        <v>3046.587</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1783.268</v>
+      </c>
+      <c r="O45">
+        <v>9147.3680000000004</v>
+      </c>
+      <c r="P45">
+        <v>3922.95</v>
+      </c>
+      <c r="Q45">
+        <v>472.43799999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4002.9949999999999</v>
+      </c>
+      <c r="U45">
+        <v>564.71199999999999</v>
+      </c>
+      <c r="V45">
+        <v>484.22699999999998</v>
+      </c>
+      <c r="W45">
+        <v>-53.66</v>
+      </c>
+      <c r="X45">
+        <v>194.17400000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>255.35900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>12.564</v>
+      </c>
+      <c r="D46">
+        <v>667.89200000000005</v>
+      </c>
+      <c r="E46">
+        <v>405.67399999999998</v>
+      </c>
+      <c r="F46">
+        <v>223.74799999999999</v>
+      </c>
+      <c r="G46">
+        <v>956.47</v>
+      </c>
+      <c r="H46">
+        <v>13111.018</v>
+      </c>
+      <c r="I46">
+        <v>326.98700000000002</v>
+      </c>
+      <c r="J46">
+        <v>3019.0540000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1342.7049999999999</v>
+      </c>
+      <c r="O46">
+        <v>9180.4320000000007</v>
+      </c>
+      <c r="P46">
+        <v>3496.489</v>
+      </c>
+      <c r="Q46">
+        <v>-531.12900000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>6663</v>
+      </c>
+      <c r="T46">
+        <v>3930.5859999999998</v>
+      </c>
+      <c r="U46">
+        <v>33.582999999999998</v>
+      </c>
+      <c r="V46">
+        <v>205.077</v>
+      </c>
+      <c r="W46">
+        <v>-55.530999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-488.49099999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>12.564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-8.2569999999999997</v>
+      </c>
+      <c r="D47">
+        <v>620.63099999999997</v>
+      </c>
+      <c r="E47">
+        <v>340.22899999999998</v>
+      </c>
+      <c r="F47">
+        <v>193.65899999999999</v>
+      </c>
+      <c r="G47">
+        <v>904.8</v>
+      </c>
+      <c r="H47">
+        <v>13183.914000000001</v>
+      </c>
+      <c r="I47">
+        <v>265.97500000000002</v>
+      </c>
+      <c r="J47">
+        <v>3341.1979999999999</v>
+      </c>
+      <c r="K47">
+        <v>216.6</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-375.72699999999998</v>
+      </c>
+      <c r="N47">
+        <v>1157.8989999999999</v>
+      </c>
+      <c r="O47">
+        <v>9322.4850000000006</v>
+      </c>
+      <c r="P47">
+        <v>3659.5059999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-12.872999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3861.4290000000001</v>
+      </c>
+      <c r="U47">
+        <v>20.71</v>
+      </c>
+      <c r="V47">
+        <v>115.33499999999999</v>
+      </c>
+      <c r="W47">
+        <v>-55.594999999999999</v>
+      </c>
+      <c r="X47">
+        <v>106.89100000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>-8.2569999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>122.345</v>
+      </c>
+      <c r="D48">
+        <v>878.57600000000002</v>
+      </c>
+      <c r="E48">
+        <v>481.87</v>
+      </c>
+      <c r="F48">
+        <v>397.61700000000002</v>
+      </c>
+      <c r="G48">
+        <v>947.41600000000005</v>
+      </c>
+      <c r="H48">
+        <v>13214.406999999999</v>
+      </c>
+      <c r="I48">
+        <v>316.32900000000001</v>
+      </c>
+      <c r="J48">
+        <v>3371.4119999999998</v>
+      </c>
+      <c r="K48">
+        <v>109</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1104.3230000000001</v>
+      </c>
+      <c r="O48">
+        <v>9315.07</v>
+      </c>
+      <c r="P48">
+        <v>3538.3739999999998</v>
+      </c>
+      <c r="Q48">
+        <v>-9.4819999999999993</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3899.337</v>
+      </c>
+      <c r="U48">
+        <v>11.228</v>
+      </c>
+      <c r="V48">
+        <v>343.3</v>
+      </c>
+      <c r="W48">
+        <v>-55.701999999999998</v>
+      </c>
+      <c r="X48">
+        <v>-173.15899999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>122.345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>244.82300000000001</v>
+      </c>
+      <c r="D49">
+        <v>1109.4749999999999</v>
+      </c>
+      <c r="E49">
+        <v>497.43700000000001</v>
+      </c>
+      <c r="F49">
+        <v>585.85199999999998</v>
+      </c>
+      <c r="G49">
+        <v>1098.8520000000001</v>
+      </c>
+      <c r="H49">
+        <v>13460.286</v>
+      </c>
+      <c r="I49">
+        <v>231.15100000000001</v>
+      </c>
+      <c r="J49">
+        <v>3338.951</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>949.34799999999996</v>
+      </c>
+      <c r="O49">
+        <v>9274.7019999999993</v>
+      </c>
+      <c r="P49">
+        <v>3429.3110000000001</v>
+      </c>
+      <c r="Q49">
+        <v>68.251000000000005</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4185.5839999999998</v>
+      </c>
+      <c r="U49">
+        <v>79.478999999999999</v>
+      </c>
+      <c r="V49">
+        <v>470.83600000000001</v>
+      </c>
+      <c r="W49">
+        <v>-55.777000000000001</v>
+      </c>
+      <c r="X49">
+        <v>-164.18899999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>244.82300000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>22.631</v>
+      </c>
+      <c r="D50">
+        <v>693.12199999999996</v>
+      </c>
+      <c r="E50">
+        <v>368.73</v>
+      </c>
+      <c r="F50">
+        <v>245.11699999999999</v>
+      </c>
+      <c r="G50">
+        <v>1005.726</v>
+      </c>
+      <c r="H50">
+        <v>13379.615</v>
+      </c>
+      <c r="I50">
+        <v>221.31200000000001</v>
+      </c>
+      <c r="J50">
+        <v>3199.0880000000002</v>
+      </c>
+      <c r="K50">
+        <v>92.174999999999997</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1083.5419999999999</v>
+      </c>
+      <c r="O50">
+        <v>9277.3259999999991</v>
+      </c>
+      <c r="P50">
+        <v>3414.0909999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-53.277000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>6613</v>
+      </c>
+      <c r="T50">
+        <v>4102.2889999999998</v>
+      </c>
+      <c r="U50">
+        <v>26.202000000000002</v>
+      </c>
+      <c r="V50">
+        <v>241.65100000000001</v>
+      </c>
+      <c r="W50">
+        <v>-58.000999999999998</v>
+      </c>
+      <c r="X50">
+        <v>-75.052000000000007</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>22.631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>24.443999999999999</v>
+      </c>
+      <c r="D51">
+        <v>686.65200000000004</v>
+      </c>
+      <c r="E51">
+        <v>355.54700000000003</v>
+      </c>
+      <c r="F51">
+        <v>232.72300000000001</v>
+      </c>
+      <c r="G51">
+        <v>871.77700000000004</v>
+      </c>
+      <c r="H51">
+        <v>13300.927</v>
+      </c>
+      <c r="I51">
+        <v>212.078</v>
+      </c>
+      <c r="J51">
+        <v>3304.4580000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-92.174999999999997</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>891.51099999999997</v>
+      </c>
+      <c r="O51">
+        <v>9148.5969999999998</v>
+      </c>
+      <c r="P51">
+        <v>3427.2860000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-1.093</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4152.33</v>
+      </c>
+      <c r="U51">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="V51">
+        <v>212.15700000000001</v>
+      </c>
+      <c r="W51">
+        <v>-58.067</v>
+      </c>
+      <c r="X51">
+        <v>-36.53</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>24.443999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>131.20699999999999</v>
+      </c>
+      <c r="D52">
+        <v>915.822</v>
+      </c>
+      <c r="E52">
+        <v>506.36799999999999</v>
+      </c>
+      <c r="F52">
+        <v>408.93799999999999</v>
+      </c>
+      <c r="G52">
+        <v>1066.289</v>
+      </c>
+      <c r="H52">
+        <v>13562.694</v>
+      </c>
+      <c r="I52">
+        <v>287.36799999999999</v>
+      </c>
+      <c r="J52">
+        <v>2820.172</v>
+      </c>
+      <c r="K52">
+        <v>30.1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1537.2180000000001</v>
+      </c>
+      <c r="O52">
+        <v>9393.4590000000007</v>
+      </c>
+      <c r="P52">
+        <v>3449.4029999999998</v>
+      </c>
+      <c r="Q52">
+        <v>2.694</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4169.2349999999997</v>
+      </c>
+      <c r="U52">
+        <v>27.803000000000001</v>
+      </c>
+      <c r="V52">
+        <v>242.09899999999999</v>
+      </c>
+      <c r="W52">
+        <v>-58.164000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-44.247</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>131.20699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>226.16300000000001</v>
+      </c>
+      <c r="D53">
+        <v>1152.3920000000001</v>
+      </c>
+      <c r="E53">
+        <v>556.15700000000004</v>
+      </c>
+      <c r="F53">
+        <v>568.11599999999999</v>
+      </c>
+      <c r="G53">
+        <v>1350.4860000000001</v>
+      </c>
+      <c r="H53">
+        <v>13822.671</v>
+      </c>
+      <c r="I53">
+        <v>250.023</v>
+      </c>
+      <c r="J53">
+        <v>2820.3150000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1444.943</v>
+      </c>
+      <c r="O53">
+        <v>9401.2430000000004</v>
+      </c>
+      <c r="P53">
+        <v>3386.7959999999998</v>
+      </c>
+      <c r="Q53">
+        <v>107.654</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4421.4279999999999</v>
+      </c>
+      <c r="U53">
+        <v>135.45699999999999</v>
+      </c>
+      <c r="V53">
+        <v>428.07400000000001</v>
+      </c>
+      <c r="W53">
+        <v>-58.253999999999998</v>
+      </c>
+      <c r="X53">
+        <v>-120.342</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>226.16300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>24.26</v>
+      </c>
+      <c r="D54">
+        <v>699.76199999999994</v>
+      </c>
+      <c r="E54">
+        <v>393.49700000000001</v>
+      </c>
+      <c r="F54">
+        <v>224.41499999999999</v>
+      </c>
+      <c r="G54">
+        <v>1043.6089999999999</v>
+      </c>
+      <c r="H54">
+        <v>13508.686</v>
+      </c>
+      <c r="I54">
+        <v>284.51600000000002</v>
+      </c>
+      <c r="J54">
+        <v>2796.4650000000001</v>
+      </c>
+      <c r="K54">
+        <v>153.125</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1618.644</v>
+      </c>
+      <c r="O54">
+        <v>9168.2260000000006</v>
+      </c>
+      <c r="P54">
+        <v>3490.0140000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-125.931</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6433</v>
+      </c>
+      <c r="T54">
+        <v>4340.46</v>
+      </c>
+      <c r="U54">
+        <v>9.5259999999999998</v>
+      </c>
+      <c r="V54">
+        <v>270.97699999999998</v>
+      </c>
+      <c r="W54">
+        <v>-60.759</v>
+      </c>
+      <c r="X54">
+        <v>40.536999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>15.766</v>
+      </c>
+      <c r="D55">
+        <v>686.25099999999998</v>
+      </c>
+      <c r="E55">
+        <v>332.28699999999998</v>
+      </c>
+      <c r="F55">
+        <v>223.583</v>
+      </c>
+      <c r="G55">
+        <v>897.93</v>
+      </c>
+      <c r="H55">
+        <v>13450.797</v>
+      </c>
+      <c r="I55">
+        <v>224.82</v>
+      </c>
+      <c r="J55">
+        <v>3045.614</v>
+      </c>
+      <c r="K55">
+        <v>9.5</v>
+      </c>
+      <c r="L55">
+        <v>-143.625</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1394.643</v>
+      </c>
+      <c r="O55">
+        <v>9073.0959999999995</v>
+      </c>
+      <c r="P55">
+        <v>3595.538</v>
+      </c>
+      <c r="Q55">
+        <v>93.894999999999996</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4377.701</v>
+      </c>
+      <c r="U55">
+        <v>103.42100000000001</v>
+      </c>
+      <c r="V55">
+        <v>249.15700000000001</v>
+      </c>
+      <c r="W55">
+        <v>-62.52</v>
+      </c>
+      <c r="X55">
+        <v>53.246000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>15.766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>132.458</v>
+      </c>
+      <c r="D56">
+        <v>906.26400000000001</v>
+      </c>
+      <c r="E56">
+        <v>495.065</v>
+      </c>
+      <c r="F56">
+        <v>404.18799999999999</v>
+      </c>
+      <c r="G56">
+        <v>999.072</v>
+      </c>
+      <c r="H56">
+        <v>13690.316999999999</v>
+      </c>
+      <c r="I56">
+        <v>320.779</v>
+      </c>
+      <c r="J56">
+        <v>2999.5129999999999</v>
+      </c>
+      <c r="K56">
+        <v>176.65</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1551.7070000000001</v>
+      </c>
+      <c r="O56">
+        <v>9308.4549999999999</v>
+      </c>
+      <c r="P56">
+        <v>3545.0039999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-94.26</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4381.8620000000001</v>
+      </c>
+      <c r="U56">
+        <v>9.1609999999999996</v>
+      </c>
+      <c r="V56">
+        <v>215.90899999999999</v>
+      </c>
+      <c r="W56">
+        <v>-62.618000000000002</v>
+      </c>
+      <c r="X56">
+        <v>-125.709</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>132.458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>243.96100000000001</v>
+      </c>
+      <c r="D57">
+        <v>1172.6669999999999</v>
+      </c>
+      <c r="E57">
+        <v>543.75300000000004</v>
+      </c>
+      <c r="F57">
+        <v>566.88800000000003</v>
+      </c>
+      <c r="G57">
+        <v>1040.932</v>
+      </c>
+      <c r="H57">
+        <v>13980.348</v>
+      </c>
+      <c r="I57">
+        <v>278.83499999999998</v>
+      </c>
+      <c r="J57">
+        <v>3037.8009999999999</v>
+      </c>
+      <c r="K57">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1445.518</v>
+      </c>
+      <c r="O57">
+        <v>9336.3349999999991</v>
+      </c>
+      <c r="P57">
+        <v>3425.7919999999999</v>
+      </c>
+      <c r="Q57">
+        <v>1.31</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4644.0129999999999</v>
+      </c>
+      <c r="U57">
+        <v>10.471</v>
+      </c>
+      <c r="V57">
+        <v>421.85199999999998</v>
+      </c>
+      <c r="W57">
+        <v>-62.64</v>
+      </c>
+      <c r="X57">
+        <v>-179.75299999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>243.96100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>5.41</v>
+      </c>
+      <c r="D58">
+        <v>726.45</v>
+      </c>
+      <c r="E58">
+        <v>395.17899999999997</v>
+      </c>
+      <c r="F58">
+        <v>209.119</v>
+      </c>
+      <c r="G58">
+        <v>973.43499999999995</v>
+      </c>
+      <c r="H58">
+        <v>14288.89</v>
+      </c>
+      <c r="I58">
+        <v>295.21100000000001</v>
+      </c>
+      <c r="J58">
+        <v>3006.5729999999999</v>
+      </c>
+      <c r="K58">
+        <v>147.4</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1559.143</v>
+      </c>
+      <c r="O58">
+        <v>9769.7880000000005</v>
+      </c>
+      <c r="P58">
+        <v>3537.5430000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-2.867</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6366</v>
+      </c>
+      <c r="T58">
+        <v>4519.1019999999999</v>
+      </c>
+      <c r="U58">
+        <v>7.6040000000000001</v>
+      </c>
+      <c r="V58">
+        <v>212.709</v>
+      </c>
+      <c r="W58">
+        <v>-58.893000000000001</v>
+      </c>
+      <c r="X58">
+        <v>73.334999999999994</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>16.122</v>
+      </c>
+      <c r="D59">
+        <v>671.21900000000005</v>
+      </c>
+      <c r="E59">
+        <v>334.29700000000003</v>
+      </c>
+      <c r="F59">
+        <v>233.03800000000001</v>
+      </c>
+      <c r="G59">
+        <v>935.44200000000001</v>
+      </c>
+      <c r="H59">
+        <v>14435.703</v>
+      </c>
+      <c r="I59">
+        <v>271.48899999999998</v>
+      </c>
+      <c r="J59">
+        <v>3281.319</v>
+      </c>
+      <c r="K59">
+        <v>44.5</v>
+      </c>
+      <c r="L59">
+        <v>-102.9</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1370.9760000000001</v>
+      </c>
+      <c r="O59">
+        <v>9882.6959999999999</v>
+      </c>
+      <c r="P59">
+        <v>3709.3890000000001</v>
+      </c>
+      <c r="Q59">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4553.0069999999996</v>
+      </c>
+      <c r="U59">
+        <v>11.664</v>
+      </c>
+      <c r="V59">
+        <v>144.148</v>
+      </c>
+      <c r="W59">
+        <v>-64.061000000000007</v>
+      </c>
+      <c r="X59">
+        <v>92.728999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>16.122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>122.902</v>
+      </c>
+      <c r="D60">
+        <v>890.64800000000002</v>
+      </c>
+      <c r="E60">
+        <v>471.93400000000003</v>
+      </c>
+      <c r="F60">
+        <v>398.20600000000002</v>
+      </c>
+      <c r="G60">
+        <v>1031.7560000000001</v>
+      </c>
+      <c r="H60">
+        <v>14701.483</v>
+      </c>
+      <c r="I60">
+        <v>326.11900000000003</v>
+      </c>
+      <c r="J60">
+        <v>3565.857</v>
+      </c>
+      <c r="K60">
+        <v>157.5</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1336.8589999999999</v>
+      </c>
+      <c r="O60">
+        <v>10175.84</v>
+      </c>
+      <c r="P60">
+        <v>3826.08</v>
+      </c>
+      <c r="Q60">
+        <v>1.893</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4525.643</v>
+      </c>
+      <c r="U60">
+        <v>13.557</v>
+      </c>
+      <c r="V60">
+        <v>250.14599999999999</v>
+      </c>
+      <c r="W60">
+        <v>-64.180000000000007</v>
+      </c>
+      <c r="X60">
+        <v>28.433</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>122.902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>257.11599999999999</v>
+      </c>
+      <c r="D61">
+        <v>1199.146</v>
+      </c>
+      <c r="E61">
+        <v>520.73299999999995</v>
+      </c>
+      <c r="F61">
+        <v>614.85</v>
+      </c>
+      <c r="G61">
+        <v>1061.979</v>
+      </c>
+      <c r="H61">
+        <v>14875.018</v>
+      </c>
+      <c r="I61">
+        <v>233.97</v>
+      </c>
+      <c r="J61">
+        <v>3257.3470000000002</v>
+      </c>
+      <c r="K61">
+        <v>57</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1523.3620000000001</v>
+      </c>
+      <c r="O61">
+        <v>10083.699000000001</v>
+      </c>
+      <c r="P61">
+        <v>3725.78</v>
+      </c>
+      <c r="Q61">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4791.3190000000004</v>
+      </c>
+      <c r="U61">
+        <v>13.007</v>
+      </c>
+      <c r="V61">
+        <v>427.07900000000001</v>
+      </c>
+      <c r="W61">
+        <v>-64.224999999999994</v>
+      </c>
+      <c r="X61">
+        <v>-164.34399999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>257.11599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>41.116999999999997</v>
+      </c>
+      <c r="D62">
+        <v>734.43</v>
+      </c>
+      <c r="E62">
+        <v>367.80599999999998</v>
+      </c>
+      <c r="F62">
+        <v>279.67399999999998</v>
+      </c>
+      <c r="G62">
+        <v>890.51599999999996</v>
+      </c>
+      <c r="H62">
+        <v>15028.258</v>
+      </c>
+      <c r="I62">
+        <v>297.48</v>
+      </c>
+      <c r="J62">
+        <v>3462.3910000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1442.317</v>
+      </c>
+      <c r="O62">
+        <v>10308.800999999999</v>
+      </c>
+      <c r="P62">
+        <v>3819.971</v>
+      </c>
+      <c r="Q62">
+        <v>26.481000000000002</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6407</v>
+      </c>
+      <c r="T62">
+        <v>4719.4570000000003</v>
+      </c>
+      <c r="U62">
+        <v>39.488</v>
+      </c>
+      <c r="V62">
+        <v>272.95400000000001</v>
+      </c>
+      <c r="W62">
+        <v>-67.561000000000007</v>
+      </c>
+      <c r="X62">
+        <v>46.972000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>41.116999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>4.4530000000000003</v>
+      </c>
+      <c r="D63">
+        <v>677.16700000000003</v>
+      </c>
+      <c r="E63">
+        <v>303.17599999999999</v>
+      </c>
+      <c r="F63">
+        <v>212.68700000000001</v>
+      </c>
+      <c r="G63">
+        <v>826.02499999999998</v>
+      </c>
+      <c r="H63">
+        <v>15185.101000000001</v>
+      </c>
+      <c r="I63">
+        <v>234.946</v>
+      </c>
+      <c r="J63">
+        <v>3463.0320000000002</v>
+      </c>
+      <c r="K63">
+        <v>261.8</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1585.902</v>
+      </c>
+      <c r="O63">
+        <v>10444.688</v>
+      </c>
+      <c r="P63">
+        <v>4082.4119999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-25.004000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4740.4129999999996</v>
+      </c>
+      <c r="U63">
+        <v>14.484</v>
+      </c>
+      <c r="V63">
+        <v>144.209</v>
+      </c>
+      <c r="W63">
+        <v>-67.611000000000004</v>
+      </c>
+      <c r="X63">
+        <v>203.09200000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>4.4530000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>121.30800000000001</v>
+      </c>
+      <c r="D64">
+        <v>915.39400000000001</v>
+      </c>
+      <c r="E64">
+        <v>473.71600000000001</v>
+      </c>
+      <c r="F64">
+        <v>398.267</v>
+      </c>
+      <c r="G64">
+        <v>963.38699999999994</v>
+      </c>
+      <c r="H64">
+        <v>15538.565000000001</v>
+      </c>
+      <c r="I64">
+        <v>316.589</v>
+      </c>
+      <c r="J64">
+        <v>3897.835</v>
+      </c>
+      <c r="K64">
+        <v>64.14</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1478.5440000000001</v>
+      </c>
+      <c r="O64">
+        <v>10819.382</v>
+      </c>
+      <c r="P64">
+        <v>4255.5550000000003</v>
+      </c>
+      <c r="Q64">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4719.183</v>
+      </c>
+      <c r="U64">
+        <v>43.04</v>
+      </c>
+      <c r="V64">
+        <v>278.26600000000002</v>
+      </c>
+      <c r="W64">
+        <v>-67.724000000000004</v>
+      </c>
+      <c r="X64">
+        <v>93.441999999999993</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>121.30800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>263.02699999999999</v>
+      </c>
+      <c r="D65">
+        <v>1166.922</v>
+      </c>
+      <c r="E65">
+        <v>471.952</v>
+      </c>
+      <c r="F65">
+        <v>613.23400000000004</v>
+      </c>
+      <c r="G65">
+        <v>977.49199999999996</v>
+      </c>
+      <c r="H65">
+        <v>15805.726000000001</v>
+      </c>
+      <c r="I65">
+        <v>248.13300000000001</v>
+      </c>
+      <c r="J65">
+        <v>4145.366</v>
+      </c>
+      <c r="K65">
+        <v>117.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1109.7180000000001</v>
+      </c>
+      <c r="O65">
+        <v>10813.591</v>
+      </c>
+      <c r="P65">
+        <v>4279.5360000000001</v>
+      </c>
+      <c r="Q65">
+        <v>5.2270000000000003</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4992.1350000000002</v>
+      </c>
+      <c r="U65">
+        <v>48.267000000000003</v>
+      </c>
+      <c r="V65">
+        <v>342.57499999999999</v>
+      </c>
+      <c r="W65">
+        <v>-67.78</v>
+      </c>
+      <c r="X65">
+        <v>-42.338999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>263.02699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>53.246000000000002</v>
+      </c>
+      <c r="D66">
+        <v>739.19899999999996</v>
+      </c>
+      <c r="E66">
+        <v>355.40300000000002</v>
+      </c>
+      <c r="F66">
+        <v>275.66500000000002</v>
+      </c>
+      <c r="G66">
+        <v>822.21900000000005</v>
+      </c>
+      <c r="H66">
+        <v>16004.253000000001</v>
+      </c>
+      <c r="I66">
+        <v>264.63099999999997</v>
+      </c>
+      <c r="J66">
+        <v>4021.7849999999999</v>
+      </c>
+      <c r="K66">
+        <v>177.2</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1292.9459999999999</v>
+      </c>
+      <c r="O66">
+        <v>11068.341</v>
+      </c>
+      <c r="P66">
+        <v>4323.9849999999997</v>
+      </c>
+      <c r="Q66">
+        <v>-39.386000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6339</v>
+      </c>
+      <c r="T66">
+        <v>4935.9120000000003</v>
+      </c>
+      <c r="U66">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="V66">
+        <v>258.33999999999997</v>
+      </c>
+      <c r="W66">
+        <v>-71.114000000000004</v>
+      </c>
+      <c r="X66">
+        <v>-56.113999999999997</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>53.246000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>23.312000000000001</v>
+      </c>
+      <c r="D67">
+        <v>677.72799999999995</v>
+      </c>
+      <c r="E67">
+        <v>290.45499999999998</v>
+      </c>
+      <c r="F67">
+        <v>239.262</v>
+      </c>
+      <c r="G67">
+        <v>794.99599999999998</v>
+      </c>
+      <c r="H67">
+        <v>16192.825000000001</v>
+      </c>
+      <c r="I67">
+        <v>250.197</v>
+      </c>
+      <c r="J67">
+        <v>4273.8900000000003</v>
+      </c>
+      <c r="K67">
+        <v>207.297</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1193.8130000000001</v>
+      </c>
+      <c r="O67">
+        <v>11226.885</v>
+      </c>
+      <c r="P67">
+        <v>4606.1869999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-5.8529999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4965.9399999999996</v>
+      </c>
+      <c r="U67">
+        <v>3.028</v>
+      </c>
+      <c r="V67">
+        <v>140.05099999999999</v>
+      </c>
+      <c r="W67">
+        <v>-71.177000000000007</v>
+      </c>
+      <c r="X67">
+        <v>202.78</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>23.312000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>167.44300000000001</v>
+      </c>
+      <c r="D68">
+        <v>944.58699999999999</v>
+      </c>
+      <c r="E68">
+        <v>504.81799999999998</v>
+      </c>
+      <c r="F68">
+        <v>468.99099999999999</v>
+      </c>
+      <c r="G68">
+        <v>1068.204</v>
+      </c>
+      <c r="H68">
+        <v>16669.726999999999</v>
+      </c>
+      <c r="I68">
+        <v>270.262</v>
+      </c>
+      <c r="J68">
+        <v>4192.5200000000004</v>
+      </c>
+      <c r="K68">
+        <v>482</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1638.5940000000001</v>
+      </c>
+      <c r="O68">
+        <v>11679.65</v>
+      </c>
+      <c r="P68">
+        <v>4881.5200000000004</v>
+      </c>
+      <c r="Q68">
+        <v>1.925</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4990.0770000000002</v>
+      </c>
+      <c r="U68">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="V68">
+        <v>150.511</v>
+      </c>
+      <c r="W68">
+        <v>-71.343000000000004</v>
+      </c>
+      <c r="X68">
+        <v>190.97</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>167.44300000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>276.072</v>
+      </c>
+      <c r="D69">
+        <v>1183.3219999999999</v>
+      </c>
+      <c r="E69">
+        <v>574.48299999999995</v>
+      </c>
+      <c r="F69">
+        <v>642.01400000000001</v>
+      </c>
+      <c r="G69">
+        <v>1174.2049999999999</v>
+      </c>
+      <c r="H69">
+        <v>16977.866999999998</v>
+      </c>
+      <c r="I69">
+        <v>236.74600000000001</v>
+      </c>
+      <c r="J69">
+        <v>4491.0479999999998</v>
+      </c>
+      <c r="K69">
+        <v>131.4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1303.143</v>
+      </c>
+      <c r="O69">
+        <v>11700.26</v>
+      </c>
+      <c r="P69">
+        <v>4829.4480000000003</v>
+      </c>
+      <c r="Q69">
+        <v>5.7210000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5277.607</v>
+      </c>
+      <c r="U69">
+        <v>10.673999999999999</v>
+      </c>
+      <c r="V69">
+        <v>481.36200000000002</v>
+      </c>
+      <c r="W69">
+        <v>-71.406999999999996</v>
+      </c>
+      <c r="X69">
+        <v>-124.242</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>276.072</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>21.629000000000001</v>
+      </c>
+      <c r="D70">
+        <v>759.65899999999999</v>
+      </c>
+      <c r="E70">
+        <v>415.06799999999998</v>
+      </c>
+      <c r="F70">
+        <v>284.62099999999998</v>
+      </c>
+      <c r="G70">
+        <v>1016.288</v>
+      </c>
+      <c r="H70">
+        <v>17019.081999999999</v>
+      </c>
+      <c r="I70">
+        <v>256.44200000000001</v>
+      </c>
+      <c r="J70">
+        <v>4789.7129999999997</v>
+      </c>
+      <c r="K70">
+        <v>95.4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1197.8520000000001</v>
+      </c>
+      <c r="O70">
+        <v>11883.352000000001</v>
+      </c>
+      <c r="P70">
+        <v>4967.1130000000003</v>
+      </c>
+      <c r="Q70">
+        <v>3.218</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>6292</v>
+      </c>
+      <c r="T70">
+        <v>5135.7299999999996</v>
+      </c>
+      <c r="U70">
+        <v>13.891999999999999</v>
+      </c>
+      <c r="V70">
+        <v>346.11200000000002</v>
+      </c>
+      <c r="W70">
+        <v>-75.866</v>
+      </c>
+      <c r="X70">
+        <v>46.003999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>21.629000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="D71">
+        <v>692.71400000000006</v>
+      </c>
+      <c r="E71">
+        <v>329.13099999999997</v>
+      </c>
+      <c r="F71">
+        <v>229.922</v>
+      </c>
+      <c r="G71">
+        <v>957.404</v>
+      </c>
+      <c r="H71">
+        <v>17148.306</v>
+      </c>
+      <c r="I71">
+        <v>205.16900000000001</v>
+      </c>
+      <c r="J71">
+        <v>4290.5330000000004</v>
+      </c>
+      <c r="K71">
+        <v>369.9</v>
+      </c>
+      <c r="L71">
+        <v>-25</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1874.3910000000001</v>
+      </c>
+      <c r="O71">
+        <v>11994.635</v>
+      </c>
+      <c r="P71">
+        <v>5242.433</v>
+      </c>
+      <c r="Q71">
+        <v>1.548</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5153.6710000000003</v>
+      </c>
+      <c r="U71">
+        <v>15.44</v>
+      </c>
+      <c r="V71">
+        <v>166.87200000000001</v>
+      </c>
+      <c r="W71">
+        <v>-75.903000000000006</v>
+      </c>
+      <c r="X71">
+        <v>195.76900000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>3.2210000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>166.738</v>
+      </c>
+      <c r="D72">
+        <v>974.12300000000005</v>
+      </c>
+      <c r="E72">
+        <v>525.17100000000005</v>
+      </c>
+      <c r="F72">
+        <v>448.63900000000001</v>
+      </c>
+      <c r="G72">
+        <v>1118.711</v>
+      </c>
+      <c r="H72">
+        <v>17492.172999999999</v>
+      </c>
+      <c r="I72">
+        <v>260.28500000000003</v>
+      </c>
+      <c r="J72">
+        <v>4191.5249999999996</v>
+      </c>
+      <c r="K72">
+        <v>616.24900000000002</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2238.8850000000002</v>
+      </c>
+      <c r="O72">
+        <v>12332.739</v>
+      </c>
+      <c r="P72">
+        <v>5407.7740000000003</v>
+      </c>
+      <c r="Q72">
+        <v>-11.601000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5159.4340000000002</v>
+      </c>
+      <c r="U72">
+        <v>3.839</v>
+      </c>
+      <c r="V72">
+        <v>228.93</v>
+      </c>
+      <c r="W72">
+        <v>-76.039000000000001</v>
+      </c>
+      <c r="X72">
+        <v>77.471999999999994</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>166.738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>315.012</v>
+      </c>
+      <c r="D73">
+        <v>1268.0340000000001</v>
+      </c>
+      <c r="E73">
+        <v>561.87199999999996</v>
+      </c>
+      <c r="F73">
+        <v>631.553</v>
+      </c>
+      <c r="G73">
+        <v>1207.19</v>
+      </c>
+      <c r="H73">
+        <v>17671.955000000002</v>
+      </c>
+      <c r="I73">
+        <v>249.059</v>
+      </c>
+      <c r="J73">
+        <v>4487.3639999999996</v>
+      </c>
+      <c r="K73">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1734.788</v>
+      </c>
+      <c r="O73">
+        <v>12186.093999999999</v>
+      </c>
+      <c r="P73">
+        <v>5215.5640000000003</v>
+      </c>
+      <c r="Q73">
+        <v>61.152000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5485.8609999999999</v>
+      </c>
+      <c r="U73">
+        <v>64.991</v>
+      </c>
+      <c r="V73">
+        <v>563.96100000000001</v>
+      </c>
+      <c r="W73">
+        <v>-76.094999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-268.589</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>315.012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>26.076000000000001</v>
+      </c>
+      <c r="D74">
+        <v>756.37599999999998</v>
+      </c>
+      <c r="E74">
+        <v>400.988</v>
+      </c>
+      <c r="F74">
+        <v>268.27300000000002</v>
+      </c>
+      <c r="G74">
+        <v>924.99099999999999</v>
+      </c>
+      <c r="H74">
+        <v>17664.202000000001</v>
+      </c>
+      <c r="I74">
+        <v>277.33600000000001</v>
+      </c>
+      <c r="J74">
+        <v>4638.232</v>
+      </c>
+      <c r="K74">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1648.9639999999999</v>
+      </c>
+      <c r="O74">
+        <v>12315.496999999999</v>
+      </c>
+      <c r="P74">
+        <v>5214.6319999999996</v>
+      </c>
+      <c r="Q74">
+        <v>-59.225000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>6259</v>
+      </c>
+      <c r="T74">
+        <v>5348.7049999999999</v>
+      </c>
+      <c r="U74">
+        <v>5.766</v>
+      </c>
+      <c r="V74">
+        <v>317.38099999999997</v>
+      </c>
+      <c r="W74">
+        <v>-80.855000000000004</v>
+      </c>
+      <c r="X74">
+        <v>-97.097999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>26.076000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>17.917999999999999</v>
+      </c>
+      <c r="D75">
+        <v>740.53</v>
+      </c>
+      <c r="E75">
+        <v>361.19</v>
+      </c>
+      <c r="F75">
+        <v>264.30799999999999</v>
+      </c>
+      <c r="G75">
+        <v>876.38900000000001</v>
+      </c>
+      <c r="H75">
+        <v>17854.107</v>
+      </c>
+      <c r="I75">
+        <v>263.65600000000001</v>
+      </c>
+      <c r="J75">
+        <v>4886.1080000000002</v>
+      </c>
+      <c r="K75">
+        <v>244.05</v>
+      </c>
+      <c r="L75">
+        <v>-5</v>
+      </c>
+      <c r="M75">
+        <v>-500</v>
+      </c>
+      <c r="N75">
+        <v>1591.3040000000001</v>
+      </c>
+      <c r="O75">
+        <v>12472.382</v>
+      </c>
+      <c r="P75">
+        <v>5499.2969999999996</v>
+      </c>
+      <c r="Q75">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5381.7250000000004</v>
+      </c>
+      <c r="U75">
+        <v>6.109</v>
+      </c>
+      <c r="V75">
+        <v>173.43199999999999</v>
+      </c>
+      <c r="W75">
+        <v>-80.897000000000006</v>
+      </c>
+      <c r="X75">
+        <v>81.424000000000007</v>
+      </c>
+      <c r="Y75">
+        <v>53.704000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>17.917999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>144.14500000000001</v>
+      </c>
+      <c r="D76">
+        <v>869.50099999999998</v>
+      </c>
+      <c r="E76">
+        <v>454.39800000000002</v>
+      </c>
+      <c r="F76">
+        <v>399.73599999999999</v>
+      </c>
+      <c r="G76">
+        <v>1028.567</v>
+      </c>
+      <c r="H76">
+        <v>18165.666000000001</v>
+      </c>
+      <c r="I76">
+        <v>327.96899999999999</v>
+      </c>
+      <c r="J76">
+        <v>4886.8789999999999</v>
+      </c>
+      <c r="K76">
+        <v>432.37299999999999</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1900.961</v>
+      </c>
+      <c r="O76">
+        <v>12808.423000000001</v>
+      </c>
+      <c r="P76">
+        <v>5682.8530000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-4.4610000000000003</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5357.2430000000004</v>
+      </c>
+      <c r="U76">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="V76">
+        <v>172.50200000000001</v>
+      </c>
+      <c r="W76">
+        <v>-81.081999999999994</v>
+      </c>
+      <c r="X76">
+        <v>96.162000000000006</v>
+      </c>
+      <c r="Y76">
+        <v>53.005000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>144.14500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>312.27600000000001</v>
+      </c>
+      <c r="D77">
+        <v>1190.787</v>
+      </c>
+      <c r="E77">
+        <v>510.505</v>
+      </c>
+      <c r="F77">
+        <v>665.35500000000002</v>
+      </c>
+      <c r="G77">
+        <v>1133.155</v>
+      </c>
+      <c r="H77">
+        <v>18377.565999999999</v>
+      </c>
+      <c r="I77">
+        <v>276.11700000000002</v>
+      </c>
+      <c r="J77">
+        <v>4984.9960000000001</v>
+      </c>
+      <c r="K77">
+        <v>57.375</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1586.7460000000001</v>
+      </c>
+      <c r="O77">
+        <v>12695.861000000001</v>
+      </c>
+      <c r="P77">
+        <v>5571.0640000000003</v>
+      </c>
+      <c r="Q77">
+        <v>28.204000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5681.7049999999999</v>
+      </c>
+      <c r="U77">
+        <v>29.852</v>
+      </c>
+      <c r="V77">
+        <v>488.827</v>
+      </c>
+      <c r="W77">
+        <v>-81.137</v>
+      </c>
+      <c r="X77">
+        <v>-156.24799999999999</v>
+      </c>
+      <c r="Y77">
+        <v>52.472000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>312.27600000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>63.981000000000002</v>
+      </c>
+      <c r="D78">
+        <v>670.39099999999996</v>
+      </c>
+      <c r="E78">
+        <v>386.42</v>
+      </c>
+      <c r="F78">
+        <v>85.073999999999998</v>
+      </c>
+      <c r="G78">
+        <v>1030.03</v>
+      </c>
+      <c r="H78">
+        <v>18479.246999999999</v>
+      </c>
+      <c r="I78">
+        <v>346.44799999999998</v>
+      </c>
+      <c r="J78">
+        <v>4832.558</v>
+      </c>
+      <c r="K78">
+        <v>114.675</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2078.3649999999998</v>
+      </c>
+      <c r="O78">
+        <v>12926.058999999999</v>
+      </c>
+      <c r="P78">
+        <v>5811.8180000000002</v>
+      </c>
+      <c r="Q78">
+        <v>-19.568999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>6210</v>
+      </c>
+      <c r="T78">
+        <v>5553.1880000000001</v>
+      </c>
+      <c r="U78">
+        <v>10.282999999999999</v>
+      </c>
+      <c r="V78">
+        <v>121.965</v>
+      </c>
+      <c r="W78">
+        <v>-86.527000000000001</v>
+      </c>
+      <c r="X78">
+        <v>157.43</v>
+      </c>
+      <c r="Y78">
+        <v>51.872</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>63.981000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>29.992999999999999</v>
+      </c>
+      <c r="D79">
+        <v>661.93</v>
+      </c>
+      <c r="E79">
+        <v>343.94200000000001</v>
+      </c>
+      <c r="F79">
+        <v>252.09100000000001</v>
+      </c>
+      <c r="G79">
+        <v>1078.307</v>
+      </c>
+      <c r="H79">
+        <v>18561.759999999998</v>
+      </c>
+      <c r="I79">
+        <v>301.32499999999999</v>
+      </c>
+      <c r="J79">
+        <v>4833.3239999999996</v>
+      </c>
+      <c r="K79">
+        <v>563</v>
+      </c>
+      <c r="L79">
+        <v>-303.36500000000001</v>
+      </c>
+      <c r="M79">
+        <v>-150</v>
+      </c>
+      <c r="N79">
+        <v>2295.4879999999998</v>
+      </c>
+      <c r="O79">
+        <v>12964.928</v>
+      </c>
+      <c r="P79">
+        <v>6109.8819999999996</v>
+      </c>
+      <c r="Q79">
+        <v>52.856000000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5596.8320000000003</v>
+      </c>
+      <c r="U79">
+        <v>63.139000000000003</v>
+      </c>
+      <c r="V79">
+        <v>183.62799999999999</v>
+      </c>
+      <c r="W79">
+        <v>-86.257000000000005</v>
+      </c>
+      <c r="X79">
+        <v>210.38800000000001</v>
+      </c>
+      <c r="Y79">
+        <v>51.198</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>29.992999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>193.58500000000001</v>
+      </c>
+      <c r="D80">
+        <v>929.59</v>
+      </c>
+      <c r="E80">
+        <v>459.47899999999998</v>
+      </c>
+      <c r="F80">
+        <v>471.81599999999997</v>
+      </c>
+      <c r="G80">
+        <v>1147.0889999999999</v>
+      </c>
+      <c r="H80">
+        <v>19307.387999999999</v>
+      </c>
+      <c r="I80">
+        <v>316.23</v>
+      </c>
+      <c r="J80">
+        <v>5922.1610000000001</v>
+      </c>
+      <c r="K80">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1496.3630000000001</v>
+      </c>
+      <c r="O80">
+        <v>13696.911</v>
+      </c>
+      <c r="P80">
+        <v>6707.5330000000004</v>
+      </c>
+      <c r="Q80">
+        <v>-56.375999999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5610.4769999999999</v>
+      </c>
+      <c r="U80">
+        <v>6.7629999999999999</v>
+      </c>
+      <c r="V80">
+        <v>185.404</v>
+      </c>
+      <c r="W80">
+        <v>-86.308999999999997</v>
+      </c>
+      <c r="X80">
+        <v>69.581000000000003</v>
+      </c>
+      <c r="Y80">
+        <v>409.62099999999998</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>193.58500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>346.37200000000001</v>
+      </c>
+      <c r="D81">
+        <v>1254.501</v>
+      </c>
+      <c r="E81">
+        <v>574.68700000000001</v>
+      </c>
+      <c r="F81">
+        <v>756.67899999999997</v>
+      </c>
+      <c r="G81">
+        <v>1454.6859999999999</v>
+      </c>
+      <c r="H81">
+        <v>19751.420999999998</v>
+      </c>
+      <c r="I81">
+        <v>288.26499999999999</v>
+      </c>
+      <c r="J81">
+        <v>6316.42</v>
+      </c>
+      <c r="K81">
+        <v>57.924999999999997</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1244.7840000000001</v>
+      </c>
+      <c r="O81">
+        <v>13784.245999999999</v>
+      </c>
+      <c r="P81">
+        <v>6821.8990000000003</v>
+      </c>
+      <c r="Q81">
+        <v>175.16300000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5967.1750000000002</v>
+      </c>
+      <c r="U81">
+        <v>181.92599999999999</v>
+      </c>
+      <c r="V81">
+        <v>402.98700000000002</v>
+      </c>
+      <c r="W81">
+        <v>-86.358000000000004</v>
+      </c>
+      <c r="X81">
+        <v>75.158000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>358.49</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>346.37200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-19.390999999999998</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>740.96100000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>425.99099999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>75.451999999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1198.319</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20020.420999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>318.58499999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6314.2659999999996</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>169</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1360.433</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14267.628000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>6919.3869999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-121.958</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>6026</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5752.7929999999997</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>59.968000000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>194.346</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-91.653000000000006</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>6.0110000000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>361.33600000000001</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-19.390999999999998</v>
       </c>
     </row>
